--- a/AAII_Financials/Quarterly/ACCD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ACCD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="92">
   <si>
     <t>ACCD</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,168 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43982</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F7" s="2">
         <v>43799</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43708</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43616</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43524</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43434</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43343</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43251</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>35900</v>
+      </c>
+      <c r="E8" s="3">
+        <v>44400</v>
+      </c>
+      <c r="F8" s="3">
         <v>29700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>29700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>28800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>35100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>21000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>20300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>18400</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E9" s="3">
+        <v>21900</v>
+      </c>
+      <c r="F9" s="3">
         <v>17500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>16800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>17400</v>
       </c>
-      <c r="G9" s="3">
-        <v>17600</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
+        <v>35200</v>
+      </c>
+      <c r="J9" s="3">
         <v>16000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>13800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>13200</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E10" s="3">
+        <v>22500</v>
+      </c>
+      <c r="F10" s="3">
         <v>12200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>12900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>11400</v>
       </c>
-      <c r="G10" s="3">
-        <v>17500</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J10" s="3">
         <v>5000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>6500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>5200</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,8 +838,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -841,8 +869,14 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,8 +904,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -899,37 +939,49 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F15" s="3">
         <v>2000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>2200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>2200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>2500</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>2700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>2400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>1800</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +990,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>48500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>45600</v>
+      </c>
+      <c r="F17" s="3">
         <v>47100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>43900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>44100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>41200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>39500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>34700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>33400</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-17400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-14200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-15300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-6100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-18500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-14400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-15000</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,77 +1075,91 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
         <v>-100</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>900</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3">
         <v>3200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-11600</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E22" s="3">
+        <v>900</v>
+      </c>
+      <c r="F22" s="3">
         <v>800</v>
-      </c>
-      <c r="E22" s="3">
-        <v>700</v>
-      </c>
-      <c r="F22" s="3">
-        <v>500</v>
       </c>
       <c r="G22" s="3">
         <v>700</v>
@@ -1088,45 +1168,57 @@
         <v>500</v>
       </c>
       <c r="I22" s="3">
+        <v>700</v>
+      </c>
+      <c r="J22" s="3">
         <v>500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
+        <v>500</v>
+      </c>
+      <c r="L22" s="3">
         <v>600</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-18300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-15000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-15900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-6900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-18900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-14900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-15800</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1134,28 +1226,34 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1281,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-18300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-15000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-15900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-6900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-18900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-14900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-15800</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-18300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-15000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-15900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-6900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-18900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-14900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-15800</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1386,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1421,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1456,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,66 +1491,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
         <v>100</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-18300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-15000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-15900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-6900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-18900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-14900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-15800</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1596,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-18300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-15000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-15900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-6900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-18900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-14900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-15800</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43982</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F38" s="2">
         <v>43799</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43708</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43616</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43524</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43434</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43343</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43251</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1690,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,20 +1705,22 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>77700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>33200</v>
+      </c>
+      <c r="F41" s="3">
         <v>39700</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1562,8 +1736,14 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,20 +1771,26 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F43" s="3">
         <v>400</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1620,8 +1806,14 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,20 +1841,26 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E45" s="3">
+        <v>14600</v>
+      </c>
+      <c r="F45" s="3">
         <v>6200</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1678,20 +1876,26 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>96800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>48900</v>
+      </c>
+      <c r="F46" s="3">
         <v>46200</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1707,8 +1911,14 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1736,20 +1946,26 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>13600</v>
+      </c>
+      <c r="F48" s="3">
         <v>11800</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1765,20 +1981,26 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E49" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F49" s="3">
         <v>6400</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1794,8 +2016,14 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +2051,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,20 +2086,26 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E52" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F52" s="3">
         <v>4400</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1881,8 +2121,14 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,20 +2156,26 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>120500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>73200</v>
+      </c>
+      <c r="F54" s="3">
         <v>68900</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1939,8 +2191,14 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2210,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,20 +2225,22 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F57" s="3">
         <v>5100</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1994,8 +2256,14 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2023,20 +2291,26 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>70500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>64700</v>
+      </c>
+      <c r="F59" s="3">
         <v>67900</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2052,20 +2326,26 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>75400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>70000</v>
+      </c>
+      <c r="F60" s="3">
         <v>72900</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2081,20 +2361,26 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>72500</v>
+      </c>
+      <c r="E61" s="3">
+        <v>21100</v>
+      </c>
+      <c r="F61" s="3">
         <v>21000</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2110,19 +2396,25 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E62" s="3">
         <v>5900</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
+      <c r="F62" s="3">
+        <v>5900</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2139,8 +2431,14 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2466,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2501,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,20 +2536,26 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>154000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>97000</v>
+      </c>
+      <c r="F66" s="3">
         <v>99800</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2255,8 +2571,14 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2590,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2621,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2656,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2335,10 +2671,10 @@
         <v>233000</v>
       </c>
       <c r="E70" s="3">
-        <v>0</v>
+        <v>233000</v>
       </c>
       <c r="F70" s="3">
-        <v>0</v>
+        <v>233000</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2355,8 +2691,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,20 +2726,26 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-334800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-320900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-318700</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2413,8 +2761,14 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2796,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2831,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,20 +2866,26 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-266500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-256800</v>
+      </c>
+      <c r="F76" s="3">
         <v>-263900</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2529,8 +2901,14 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2936,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43982</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F80" s="2">
         <v>43799</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43708</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43616</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43524</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43434</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43343</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43251</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-18300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-15000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-15900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-6900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-18900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-14900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-15800</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,37 +3030,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+        <v>2100</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +3096,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +3131,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +3166,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +3201,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3236,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-8300</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
+        <v>-10300</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,37 +3290,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+        <v>-800</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3356,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,37 +3391,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+        <v>-800</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3445,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3476,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3511,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3546,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,37 +3581,49 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>53400</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
+        <v>4600</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,33 +3651,45 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>44500</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
+        <v>-6500</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ACCD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ACCD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="92">
   <si>
     <t>ACCD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,168 +665,181 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E7" s="2">
         <v>43982</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43890</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43799</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43708</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43616</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43524</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43434</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43343</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43251</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>36800</v>
+      </c>
+      <c r="E8" s="3">
         <v>35900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>44400</v>
-      </c>
-      <c r="F8" s="3">
-        <v>29700</v>
       </c>
       <c r="G8" s="3">
         <v>29700</v>
       </c>
       <c r="H8" s="3">
+        <v>29700</v>
+      </c>
+      <c r="I8" s="3">
         <v>28800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>35100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>21000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>20300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>18400</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E9" s="3">
         <v>22200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>21900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>17500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>16800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>17400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>35200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>16000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>13800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>13200</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E10" s="3">
         <v>13700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>22500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>12200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>12900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>11400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>5000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5200</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,8 +853,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -875,8 +889,11 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,8 +927,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -945,43 +965,49 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E15" s="3">
         <v>1900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>2100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>2000</v>
-      </c>
-      <c r="G15" s="3">
-        <v>2200</v>
       </c>
       <c r="H15" s="3">
         <v>2200</v>
       </c>
       <c r="I15" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J15" s="3">
         <v>2500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>2700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1800</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,78 +1018,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>49700</v>
+      </c>
+      <c r="E17" s="3">
         <v>48500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>45600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>47100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>43900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>44100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>41200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>39500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>34700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>33400</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-12600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-17400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-14200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-15300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-6100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-18500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-14400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-15000</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,19 +1110,20 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
         <v>-100</v>
@@ -1098,7 +1132,7 @@
         <v>-100</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -1107,118 +1141,130 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-10700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>900</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3">
         <v>3200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-11600</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E22" s="3">
         <v>1300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>700</v>
-      </c>
-      <c r="J22" s="3">
-        <v>500</v>
       </c>
       <c r="K22" s="3">
         <v>500</v>
       </c>
       <c r="L22" s="3">
+        <v>500</v>
+      </c>
+      <c r="M22" s="3">
         <v>600</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-13900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-18300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-15000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-15900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-6900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-18900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-14900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-15800</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1226,11 +1272,11 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
@@ -1238,22 +1284,25 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1336,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-14000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-18300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-15000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-15900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-6900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-18900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-14900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-15800</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-14000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-18300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-15000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-15900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-6900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-18900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-14900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-15800</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1450,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1488,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1526,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,19 +1564,22 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
         <v>100</v>
@@ -1518,7 +1588,7 @@
         <v>100</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -1527,48 +1597,54 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-14000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-18300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-15000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-15900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-6900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-18900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-14900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-15800</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1678,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-14000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-18300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-15000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-15900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-6900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-18900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-14900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-15800</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E38" s="2">
         <v>43982</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43890</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43799</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43708</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43616</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43524</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43434</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43343</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43251</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1777,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,23 +1793,24 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>222100</v>
+      </c>
+      <c r="E41" s="3">
         <v>77700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>33200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>39700</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1742,8 +1829,11 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1777,23 +1867,26 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E43" s="3">
         <v>3200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>400</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1812,8 +1905,11 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1847,23 +1943,26 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E45" s="3">
         <v>15900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>14600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6200</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1882,23 +1981,26 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>242800</v>
+      </c>
+      <c r="E46" s="3">
         <v>96800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>48900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>46200</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1917,8 +2019,11 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1952,23 +2057,26 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E48" s="3">
         <v>12600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>13600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>11800</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1987,23 +2095,26 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E49" s="3">
         <v>5700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>6100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>6400</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2022,8 +2133,11 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2171,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,23 +2209,26 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E52" s="3">
         <v>5400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4400</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2127,8 +2247,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,23 +2285,26 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>266900</v>
+      </c>
+      <c r="E54" s="3">
         <v>120500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>73200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>68900</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2197,8 +2323,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2341,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,23 +2357,24 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E57" s="3">
         <v>4900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5100</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2262,8 +2393,11 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2297,23 +2431,26 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>65100</v>
+      </c>
+      <c r="E59" s="3">
         <v>70500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>64700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>67900</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2332,23 +2469,26 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>68900</v>
+      </c>
+      <c r="E60" s="3">
         <v>75400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>70000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>72900</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2367,23 +2507,26 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>72500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>21100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>21000</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2402,22 +2545,25 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E62" s="3">
         <v>6000</v>
-      </c>
-      <c r="E62" s="3">
-        <v>5900</v>
       </c>
       <c r="F62" s="3">
         <v>5900</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
+      <c r="G62" s="3">
+        <v>5900</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2437,8 +2583,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2621,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2659,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,23 +2697,26 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>74800</v>
+      </c>
+      <c r="E66" s="3">
         <v>154000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>97000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>99800</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2577,8 +2735,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2753,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2789,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,13 +2827,16 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>233000</v>
+        <v>0</v>
       </c>
       <c r="E70" s="3">
         <v>233000</v>
@@ -2677,7 +2845,7 @@
         <v>233000</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>233000</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2697,8 +2865,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,23 +2903,26 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-350200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-334800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-320900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-318700</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2767,8 +2941,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2979,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3017,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,23 +3055,26 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>192100</v>
+      </c>
+      <c r="E76" s="3">
         <v>-266500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-256800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-263900</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2907,8 +3093,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3131,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E80" s="2">
         <v>43982</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43890</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43799</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43708</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43616</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43524</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43434</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43343</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43251</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-14000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-18300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-15000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-15900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-6900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-18900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-14900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-15800</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,20 +3230,21 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2100</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3058,8 +3257,8 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -3067,8 +3266,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3304,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3342,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3380,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3418,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,20 +3456,23 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-8300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-10300</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3268,8 +3485,8 @@
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
+      <c r="K89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
@@ -3277,8 +3494,11 @@
       <c r="M89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,20 +3512,21 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-800</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3318,8 +3539,8 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -3327,8 +3548,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3586,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,20 +3624,23 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-800</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3423,8 +3653,8 @@
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -3432,8 +3662,11 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3680,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3716,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3754,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3792,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,20 +3830,23 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>160300</v>
+      </c>
+      <c r="E100" s="3">
         <v>53400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>4600</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3613,8 +3859,8 @@
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
+      <c r="K100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
@@ -3622,8 +3868,11 @@
       <c r="M100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3657,20 +3906,23 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>144400</v>
+      </c>
+      <c r="E102" s="3">
         <v>44500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-6500</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3683,13 +3935,16 @@
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
+      <c r="K102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ACCD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ACCD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="92">
   <si>
     <t>ACCD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,152 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E7" s="2">
         <v>44074</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43982</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43890</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43799</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43708</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43616</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43524</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43434</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43343</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43251</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>38400</v>
+      </c>
+      <c r="E8" s="3">
         <v>36800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>35900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>44400</v>
-      </c>
-      <c r="G8" s="3">
-        <v>29700</v>
       </c>
       <c r="H8" s="3">
         <v>29700</v>
       </c>
       <c r="I8" s="3">
+        <v>29700</v>
+      </c>
+      <c r="J8" s="3">
         <v>28800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>35100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>21000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>20300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>18400</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E9" s="3">
         <v>21100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>22200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>21900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>17500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>16800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>17400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>35200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>16000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>13800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>13200</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -809,37 +818,40 @@
         <v>15700</v>
       </c>
       <c r="E10" s="3">
+        <v>15700</v>
+      </c>
+      <c r="F10" s="3">
         <v>13700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>22500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>12200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>12900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>11400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5200</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,8 +866,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -892,8 +905,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,8 +946,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -968,46 +987,52 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E15" s="3">
         <v>2000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>1900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>2100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>2000</v>
-      </c>
-      <c r="H15" s="3">
-        <v>2200</v>
       </c>
       <c r="I15" s="3">
         <v>2200</v>
       </c>
       <c r="J15" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K15" s="3">
         <v>2500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1800</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1044,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>54900</v>
+      </c>
+      <c r="E17" s="3">
         <v>49700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>48500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>45600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>47100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>43900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>44100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>41200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>39500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>34700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>33400</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-12900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-12600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-17400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-14200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-15300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-6100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-18500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-14400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-15000</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,22 +1143,23 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>-100</v>
@@ -1135,7 +1168,7 @@
         <v>-100</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1144,127 +1177,139 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-11000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-10700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>900</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3">
         <v>3200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-11600</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
         <v>2300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>700</v>
-      </c>
-      <c r="K22" s="3">
-        <v>500</v>
       </c>
       <c r="L22" s="3">
         <v>500</v>
       </c>
       <c r="M22" s="3">
+        <v>500</v>
+      </c>
+      <c r="N22" s="3">
         <v>600</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-15400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-13900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-18300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-15000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-15900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-6900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-18900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-14900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-15800</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1275,11 +1320,11 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
@@ -1287,22 +1332,25 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1387,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-15400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-14000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-18300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-15000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-15900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-6900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-18900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-14900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-15800</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-15400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-14000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-18300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-15000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-15900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-6900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-18900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-14900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-15800</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,22 +1633,25 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
         <v>100</v>
@@ -1591,7 +1660,7 @@
         <v>100</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -1600,51 +1669,57 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-15400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-14000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-18300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-15000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-15900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-6900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-18900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-14900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-15800</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1756,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-15400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-14000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-18300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-15000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-15900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-6900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-18900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-14900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-15800</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E38" s="2">
         <v>44074</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43982</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43890</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43799</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43708</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43616</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43524</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43434</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43343</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43251</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,26 +1879,27 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>418900</v>
+      </c>
+      <c r="E41" s="3">
         <v>222100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>77700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>33200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>39700</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1832,8 +1918,11 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,26 +1959,29 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E43" s="3">
         <v>10800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>400</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1908,8 +2000,11 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1946,26 +2041,29 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E45" s="3">
         <v>10000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>15900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>14600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6200</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1984,26 +2082,29 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>444500</v>
+      </c>
+      <c r="E46" s="3">
         <v>242800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>96800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>48900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>46200</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2022,8 +2123,11 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2060,26 +2164,29 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E48" s="3">
         <v>11700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>12600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>13600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>11800</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2098,26 +2205,29 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E49" s="3">
         <v>5300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>5700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>6100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>6400</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2136,8 +2246,11 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,26 +2328,29 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E52" s="3">
         <v>7000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4400</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2250,8 +2369,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,26 +2410,29 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>467500</v>
+      </c>
+      <c r="E54" s="3">
         <v>266900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>120500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>73200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>68900</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2326,8 +2451,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,26 +2487,27 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E57" s="3">
         <v>3800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5100</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2396,8 +2526,11 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2434,26 +2567,29 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>69300</v>
+      </c>
+      <c r="E59" s="3">
         <v>65100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>70500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>64700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>67900</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2472,26 +2608,29 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>73400</v>
+      </c>
+      <c r="E60" s="3">
         <v>68900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>75400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>70000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>72900</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2510,8 +2649,11 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2519,17 +2661,17 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>72500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>21100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>21000</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2548,8 +2690,11 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2557,16 +2702,16 @@
         <v>5800</v>
       </c>
       <c r="E62" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F62" s="3">
         <v>6000</v>
-      </c>
-      <c r="F62" s="3">
-        <v>5900</v>
       </c>
       <c r="G62" s="3">
         <v>5900</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
+      <c r="H62" s="3">
+        <v>5900</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2586,8 +2731,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,26 +2854,29 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>79200</v>
+      </c>
+      <c r="E66" s="3">
         <v>74800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>154000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>97000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>99800</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2738,8 +2895,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2839,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>233000</v>
+        <v>0</v>
       </c>
       <c r="F70" s="3">
         <v>233000</v>
@@ -2848,7 +3015,7 @@
         <v>233000</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>233000</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2868,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,26 +3076,29 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-366800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-350200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-334800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-320900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-318700</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2944,8 +3117,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,26 +3240,29 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>388300</v>
+      </c>
+      <c r="E76" s="3">
         <v>192100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-266500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-256800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-263900</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3096,8 +3281,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3322,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E80" s="2">
         <v>44074</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43982</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43890</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43799</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43708</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43616</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43524</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43434</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43343</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43251</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-15400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-14000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-18300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-15000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-15900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-6900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-18900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-14900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-15800</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,23 +3428,24 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E83" s="3">
         <v>2000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2100</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3260,8 +3458,8 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -3269,8 +3467,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,23 +3672,26 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-15000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-8300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-10300</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3488,8 +3704,8 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
+      <c r="L89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
@@ -3497,8 +3713,11 @@
       <c r="N89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,23 +3732,24 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-800</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3542,8 +3762,8 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -3551,8 +3771,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,23 +3853,26 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-800</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3656,8 +3885,8 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -3665,8 +3894,11 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,23 +4075,26 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>209600</v>
+      </c>
+      <c r="E100" s="3">
         <v>160300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>53400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>4600</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3862,8 +4107,8 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
+      <c r="L100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
@@ -3871,8 +4116,11 @@
       <c r="N100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3909,23 +4157,26 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>196800</v>
+      </c>
+      <c r="E102" s="3">
         <v>144400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>44500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-6500</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3938,13 +4189,16 @@
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ACCD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ACCD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="92">
   <si>
     <t>ACCD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,193 +665,206 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E7" s="2">
         <v>44165</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44074</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43982</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43890</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43799</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43708</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43616</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43524</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43434</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43343</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43251</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>59200</v>
+      </c>
+      <c r="E8" s="3">
         <v>38400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>36800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>35900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>44400</v>
-      </c>
-      <c r="H8" s="3">
-        <v>29700</v>
       </c>
       <c r="I8" s="3">
         <v>29700</v>
       </c>
       <c r="J8" s="3">
+        <v>29700</v>
+      </c>
+      <c r="K8" s="3">
         <v>28800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>35100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>21000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>20300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>18400</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>27600</v>
+      </c>
+      <c r="E9" s="3">
         <v>22700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>21100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>22200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>21900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>17500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>16800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>17400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>35200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>16000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>13800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>13200</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>15700</v>
+        <v>31600</v>
       </c>
       <c r="E10" s="3">
         <v>15700</v>
       </c>
       <c r="F10" s="3">
+        <v>15700</v>
+      </c>
+      <c r="G10" s="3">
         <v>13700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>22500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>12200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>12900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>11400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5200</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,8 +880,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -908,8 +922,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,8 +966,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -990,8 +1010,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -999,40 +1022,43 @@
         <v>2100</v>
       </c>
       <c r="E15" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F15" s="3">
         <v>2000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>2100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>2000</v>
-      </c>
-      <c r="I15" s="3">
-        <v>2200</v>
       </c>
       <c r="J15" s="3">
         <v>2200</v>
       </c>
       <c r="K15" s="3">
+        <v>2200</v>
+      </c>
+      <c r="L15" s="3">
         <v>2500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>2400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>1800</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,90 +1071,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>64000</v>
+      </c>
+      <c r="E17" s="3">
         <v>54900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>49700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>48500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>45600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>47100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>43900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>44100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>41200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>39500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>34700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>33400</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-16500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-12900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-12600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-17400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-14200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-15300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-6100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-18500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-14400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-15000</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,8 +1177,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1153,16 +1187,16 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
         <v>-100</v>
@@ -1171,7 +1205,7 @@
         <v>-100</v>
       </c>
       <c r="K20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
@@ -1180,141 +1214,153 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-14400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-11000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-10700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>900</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3">
         <v>3200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-11600</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>2300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>700</v>
-      </c>
-      <c r="L22" s="3">
-        <v>500</v>
       </c>
       <c r="M22" s="3">
         <v>500</v>
       </c>
       <c r="N22" s="3">
+        <v>500</v>
+      </c>
+      <c r="O22" s="3">
         <v>600</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-16600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-15400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-13900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-18300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-15000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-15900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-6900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-18900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-14900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-15800</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1323,11 +1369,11 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
@@ -1335,22 +1381,25 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-16600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-15400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-14000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-18300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-15000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-15900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-6900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-18900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-14900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-15800</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-16600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-15400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-14000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-18300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-15000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-15900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-6900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-18900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-14900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-15800</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,8 +1703,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1645,16 +1715,16 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
         <v>100</v>
@@ -1663,7 +1733,7 @@
         <v>100</v>
       </c>
       <c r="K32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
@@ -1672,54 +1742,60 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-16600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-15400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-14000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-18300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-15000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-15900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-6900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-18900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-14900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-15800</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-16600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-15400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-14000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-18300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-15000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-15900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-6900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-18900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-14900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-15800</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E38" s="2">
         <v>44165</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44074</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43982</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43890</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43799</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43708</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43616</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43524</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43434</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43343</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43251</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,29 +1966,30 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>433900</v>
+      </c>
+      <c r="E41" s="3">
         <v>418900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>222100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>77700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>33200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>39700</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1921,8 +2008,11 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,29 +2052,32 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E43" s="3">
         <v>16800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>10800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>400</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2003,8 +2096,11 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2044,29 +2140,32 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E45" s="3">
         <v>8800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>10000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>15900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>14600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>6200</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2085,29 +2184,32 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>454000</v>
+      </c>
+      <c r="E46" s="3">
         <v>444500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>242800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>96800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>48900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>46200</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2126,8 +2228,11 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2167,29 +2272,32 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E48" s="3">
         <v>10500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>11700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>12600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>13600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>11800</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2208,29 +2316,32 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E49" s="3">
         <v>5000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>5300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>5700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>6100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>6400</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2249,8 +2360,11 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,29 +2448,32 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E52" s="3">
         <v>7500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>7000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4400</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2372,8 +2492,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,29 +2536,32 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>475500</v>
+      </c>
+      <c r="E54" s="3">
         <v>467500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>266900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>120500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>73200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>68900</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2454,8 +2580,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,29 +2618,30 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E57" s="3">
         <v>4100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5100</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2529,8 +2660,11 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2570,29 +2704,32 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>71700</v>
+      </c>
+      <c r="E59" s="3">
         <v>69300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>65100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>70500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>64700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>67900</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2611,29 +2748,32 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>79100</v>
+      </c>
+      <c r="E60" s="3">
         <v>73400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>68900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>75400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>70000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>72900</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2652,8 +2792,11 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2664,17 +2807,17 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>72500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>21100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>21000</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2693,28 +2836,31 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5800</v>
+        <v>5600</v>
       </c>
       <c r="E62" s="3">
         <v>5800</v>
       </c>
       <c r="F62" s="3">
+        <v>5800</v>
+      </c>
+      <c r="G62" s="3">
         <v>6000</v>
-      </c>
-      <c r="G62" s="3">
-        <v>5900</v>
       </c>
       <c r="H62" s="3">
         <v>5900</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
+      <c r="I62" s="3">
+        <v>5900</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2734,8 +2880,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,29 +3012,32 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>84700</v>
+      </c>
+      <c r="E66" s="3">
         <v>79200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>74800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>154000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>97000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>99800</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2898,8 +3056,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3009,7 +3177,7 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>233000</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
         <v>233000</v>
@@ -3018,7 +3186,7 @@
         <v>233000</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>233000</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -3038,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,29 +3250,32 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-371500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-366800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-350200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-334800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-320900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-318700</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3120,8 +3294,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,29 +3426,32 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>390800</v>
+      </c>
+      <c r="E76" s="3">
         <v>388300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>192100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-266500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-256800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-263900</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3284,8 +3470,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E80" s="2">
         <v>44165</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44074</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43982</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43890</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43799</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43708</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43616</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43524</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43434</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43343</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43251</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-16600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-15400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-14000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-18300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-15000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-15900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-6900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-18900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-14900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-15800</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,8 +3627,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3438,17 +3637,17 @@
         <v>2100</v>
       </c>
       <c r="E83" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F83" s="3">
         <v>2000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2100</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3461,8 +3660,8 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -3470,8 +3669,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,26 +3889,29 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-12300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-15000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-8300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-10300</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3707,8 +3924,8 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
@@ -3716,8 +3933,11 @@
       <c r="O89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,8 +3953,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3742,17 +3963,17 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-800</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3765,8 +3986,8 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -3774,8 +3995,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,8 +4083,11 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3865,17 +4095,17 @@
         <v>-500</v>
       </c>
       <c r="E94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F94" s="3">
         <v>-900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-800</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3888,8 +4118,8 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -3897,8 +4127,11 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,26 +4321,29 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E100" s="3">
         <v>209600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>160300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>53400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>4600</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4110,8 +4356,8 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
@@ -4119,8 +4365,11 @@
       <c r="O100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4160,26 +4409,29 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E102" s="3">
         <v>196800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>144400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>44500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-6500</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4192,13 +4444,16 @@
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ACCD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ACCD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="92">
   <si>
     <t>ACCD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,232 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44347</v>
+      </c>
+      <c r="F7" s="2">
         <v>44255</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44165</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44074</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43982</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43890</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43799</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43708</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43616</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43524</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43434</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43343</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43251</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>73300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>59500</v>
+      </c>
+      <c r="F8" s="3">
         <v>59200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>38400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>36800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>35900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>44400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>29700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>29700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>28800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>35100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>21000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>20300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>18400</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>44300</v>
+      </c>
+      <c r="E9" s="3">
+        <v>35900</v>
+      </c>
+      <c r="F9" s="3">
         <v>27600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>22700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>21100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>22200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>21900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>17500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>16800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>17400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>35200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>16000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>13800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>13200</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>23600</v>
+      </c>
+      <c r="F10" s="3">
         <v>31600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>15700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>15700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>13700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>22500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>12200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>12900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>11400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>-100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>5000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>6500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>5200</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +907,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +953,14 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +1003,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,52 +1053,64 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>8700</v>
+      </c>
+      <c r="F15" s="3">
         <v>2100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>2100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>2000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>1900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>2100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>2000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>2200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>2200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>2500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>2700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>2400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>1800</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1124,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>147700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>107500</v>
+      </c>
+      <c r="F17" s="3">
         <v>64000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>54900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>49700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>48500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>45600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>47100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>43900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>44100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>41200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>39500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>34700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>33400</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-74400</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-48000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-4800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-16500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-12900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-12600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-1200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-17400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-14200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-15300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-6100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-18500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-14400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-15000</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1244,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1190,110 +1258,122 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K20" s="3">
         <v>-100</v>
       </c>
       <c r="L20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-63400</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-39400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-14400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-11000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-10700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>900</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3">
         <v>3200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-11600</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>800</v>
+      </c>
+      <c r="E22" s="3">
+        <v>600</v>
+      </c>
+      <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>2300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>1300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>800</v>
-      </c>
-      <c r="J22" s="3">
-        <v>700</v>
-      </c>
-      <c r="K22" s="3">
-        <v>500</v>
       </c>
       <c r="L22" s="3">
         <v>700</v>
@@ -1302,104 +1382,122 @@
         <v>500</v>
       </c>
       <c r="N22" s="3">
+        <v>700</v>
+      </c>
+      <c r="O22" s="3">
         <v>500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q22" s="3">
         <v>600</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-75200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-48700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-4800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-16600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-15400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-13900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-2100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-18300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-15000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-15900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-6900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-18900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-14900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-15800</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1540,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-62400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-48700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-4700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-16600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-15400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-14000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-2100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-18300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-15000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-15900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-6900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-18900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-14900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-15800</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-62400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-48700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-4700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-16600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-15400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-14000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-2100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-18300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-15000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-15900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-6900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-18900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-14900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-15800</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1690,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1740,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1790,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1840,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1718,84 +1858,96 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
         <v>100</v>
       </c>
       <c r="L32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-62400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-48700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-4700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-16600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-15400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-14000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-2100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-18300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-15000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-15900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-6900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-18900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-14900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-15800</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1990,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-62400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-48700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-4700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-16600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-15400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-14000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-2100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-18300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-15000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-15900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-6900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-18900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-14900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-15800</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44347</v>
+      </c>
+      <c r="F38" s="2">
         <v>44255</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44165</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44074</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43982</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43890</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43799</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43708</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43616</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43524</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43434</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43343</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43251</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2119,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,35 +2139,37 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>384000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>325500</v>
+      </c>
+      <c r="F41" s="3">
         <v>433900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>418900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>222100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>77700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>33200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>39700</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2011,31 +2185,37 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
+      <c r="D42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>100000</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -2055,35 +2235,41 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E43" s="3">
+        <v>18000</v>
+      </c>
+      <c r="F43" s="3">
         <v>11800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>16800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>10800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>3200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>1200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>400</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2099,8 +2285,14 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,35 +2335,41 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E45" s="3">
+        <v>9900</v>
+      </c>
+      <c r="F45" s="3">
         <v>8300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>8800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>10000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>15900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>14600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>6200</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2187,35 +2385,41 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>417600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>453500</v>
+      </c>
+      <c r="F46" s="3">
         <v>454000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>444500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>242800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>96800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>48900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>46200</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2231,8 +2435,14 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,35 +2485,41 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>12200</v>
+      </c>
+      <c r="F48" s="3">
         <v>9200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>10500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>11700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>12600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>13600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>11800</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2319,35 +2535,41 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>830800</v>
+      </c>
+      <c r="E49" s="3">
+        <v>417700</v>
+      </c>
+      <c r="F49" s="3">
         <v>4600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>5000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>5300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>5700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>6100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>6400</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2363,8 +2585,14 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2635,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,35 +2685,41 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E52" s="3">
+        <v>8200</v>
+      </c>
+      <c r="F52" s="3">
         <v>7700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>7500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>7000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>5400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>4600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>4400</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2495,8 +2735,14 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,35 +2785,41 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1269800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>891500</v>
+      </c>
+      <c r="F54" s="3">
         <v>475500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>467500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>266900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>120500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>73200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>68900</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2583,8 +2835,14 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2859,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,35 +2879,37 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>7100</v>
+      </c>
+      <c r="F57" s="3">
         <v>7400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>4100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>3800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>4900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>5300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>5100</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2663,8 +2925,14 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,35 +2975,41 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>240700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>160400</v>
+      </c>
+      <c r="F59" s="3">
         <v>71700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>69300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>65100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>70500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>64700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>67900</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2751,35 +3025,41 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>249400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>167500</v>
+      </c>
+      <c r="F60" s="3">
         <v>79100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>73400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>68900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>75400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>70000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>72900</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2795,35 +3075,41 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>279800</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>279400</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>72500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>21100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>21000</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2839,35 +3125,41 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F62" s="3">
         <v>5600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>5800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>5800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>6000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>5900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>5900</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2883,8 +3175,14 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3225,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3275,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,35 +3325,41 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>536200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>454400</v>
+      </c>
+      <c r="F66" s="3">
         <v>84700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>79200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>74800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>154000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>97000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>99800</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3059,8 +3375,14 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3399,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3445,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3495,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3180,19 +3516,19 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>233000</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>233000</v>
+        <v>0</v>
       </c>
       <c r="I70" s="3">
         <v>233000</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>233000</v>
       </c>
       <c r="K70" s="3">
-        <v>0</v>
+        <v>233000</v>
       </c>
       <c r="L70" s="3">
         <v>0</v>
@@ -3209,8 +3545,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,35 +3595,41 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-482600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-420200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-371500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-366800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-350200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-334800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-320900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-318700</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3297,8 +3645,14 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3695,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3745,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,35 +3795,41 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>733600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>437100</v>
+      </c>
+      <c r="F76" s="3">
         <v>390800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>388300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>192100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-266500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-256800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-263900</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3473,8 +3845,14 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3895,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44347</v>
+      </c>
+      <c r="F80" s="2">
         <v>44255</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44165</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44074</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43982</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43890</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43799</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43708</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43616</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43524</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43434</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43343</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43251</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-62400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-48700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-4700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-16600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-15400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-14000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-2100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-18300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-15000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-15900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-6900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-18900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-14900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-15800</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,32 +4024,34 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>8700</v>
+      </c>
+      <c r="F83" s="3">
         <v>2100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>2100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>2000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>1900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>2100</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3663,17 +4061,23 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4120,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4170,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4220,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4270,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,32 +4320,38 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-27600</v>
+      </c>
+      <c r="F89" s="3">
         <v>10400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-12300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-15000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-8300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-10300</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3927,17 +4361,23 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3">
-        <v>0</v>
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,32 +4394,34 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-800</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3989,17 +4431,23 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4490,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,32 +4540,38 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>64900</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-328700</v>
+      </c>
+      <c r="F94" s="3">
         <v>-500</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-500</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-900</v>
       </c>
       <c r="G94" s="3">
         <v>-500</v>
       </c>
       <c r="H94" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J94" s="3">
         <v>-800</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4121,17 +4581,23 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4614,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4660,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4710,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4760,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,32 +4810,38 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>248000</v>
+      </c>
+      <c r="F100" s="3">
         <v>5000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>209600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>160300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>53400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>4600</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4359,17 +4851,23 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,32 +4910,38 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>58500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-108400</v>
+      </c>
+      <c r="F102" s="3">
         <v>14900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>196800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>144400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>44500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-6500</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4447,13 +4951,19 @@
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
-        <v>0</v>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ACCD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ACCD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="92">
   <si>
     <t>ACCD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,244 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E7" s="2">
         <v>44439</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44347</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44255</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44165</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44074</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43982</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43890</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43799</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43708</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43616</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43524</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43434</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43343</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43251</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>83500</v>
+      </c>
+      <c r="E8" s="3">
         <v>73300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>59500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>59200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>38400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>36800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>35900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>44400</v>
-      </c>
-      <c r="K8" s="3">
-        <v>29700</v>
       </c>
       <c r="L8" s="3">
         <v>29700</v>
       </c>
       <c r="M8" s="3">
+        <v>29700</v>
+      </c>
+      <c r="N8" s="3">
         <v>28800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>35100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>21000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>20300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>18400</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>45200</v>
+      </c>
+      <c r="E9" s="3">
         <v>44300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>35900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>27600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>22700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>21100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>22200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>21900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>17500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>16800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>17400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>35200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>16000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>13800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>13200</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>38300</v>
+      </c>
+      <c r="E10" s="3">
         <v>29000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>23600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>31600</v>
-      </c>
-      <c r="G10" s="3">
-        <v>15700</v>
       </c>
       <c r="H10" s="3">
         <v>15700</v>
       </c>
       <c r="I10" s="3">
+        <v>15700</v>
+      </c>
+      <c r="J10" s="3">
         <v>13700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>22500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>12200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>12900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>11400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>6500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5200</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -959,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1059,58 +1078,64 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E15" s="3">
         <v>11000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>8700</v>
-      </c>
-      <c r="F15" s="3">
-        <v>2100</v>
       </c>
       <c r="G15" s="3">
         <v>2100</v>
       </c>
       <c r="H15" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I15" s="3">
         <v>2000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>2100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2000</v>
-      </c>
-      <c r="L15" s="3">
-        <v>2200</v>
       </c>
       <c r="M15" s="3">
         <v>2200</v>
       </c>
       <c r="N15" s="3">
+        <v>2200</v>
+      </c>
+      <c r="O15" s="3">
         <v>2500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>2700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>2400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>1800</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>56900</v>
+      </c>
+      <c r="E17" s="3">
         <v>147700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>107500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>64000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>54900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>49700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>48500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>45600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>47100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>43900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>44100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>41200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>39500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>34700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>33400</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>26600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-74400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-48000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-4800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-16500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-12900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-12600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-17400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-14200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-15300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-6100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-18500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-14400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-15000</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1264,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L20" s="3">
         <v>-100</v>
@@ -1282,7 +1315,7 @@
         <v>-100</v>
       </c>
       <c r="N20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
@@ -1291,178 +1324,190 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>37800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-63400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-39400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-14400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-11000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-10700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>900</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3">
         <v>3200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-11600</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>700</v>
+      </c>
+      <c r="E22" s="3">
         <v>800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>2300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>700</v>
-      </c>
-      <c r="O22" s="3">
-        <v>500</v>
       </c>
       <c r="P22" s="3">
         <v>500</v>
       </c>
       <c r="Q22" s="3">
+        <v>500</v>
+      </c>
+      <c r="R22" s="3">
         <v>600</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>25800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-75200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-48700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-16600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-15400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-13900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-18300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-15000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-15900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-6900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-18900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-14900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-15800</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E24" s="3">
         <v>-12800</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
@@ -1470,11 +1515,11 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
@@ -1482,22 +1527,25 @@
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-62400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-48700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-16600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-15400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-14000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-18300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-15000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-15900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-6900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-18900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-14900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-15800</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-62400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-48700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-16600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-15400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-14000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-18300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-15000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-15900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-6900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-18900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-14900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-15800</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1864,16 +1933,16 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L32" s="3">
         <v>100</v>
@@ -1882,7 +1951,7 @@
         <v>100</v>
       </c>
       <c r="N32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
@@ -1891,63 +1960,69 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-62400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-48700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-16600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-15400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-14000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-18300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-15000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-15900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-6900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-18900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-14900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-15800</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-62400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-48700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-16600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-15400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-14000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-18300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-15000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-15900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-6900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-18900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-14900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-15800</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E38" s="2">
         <v>44439</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44347</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44255</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44165</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44074</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43982</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43890</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43799</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43708</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43616</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43524</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43434</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43343</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43251</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,38 +2226,39 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>366000</v>
+      </c>
+      <c r="E41" s="3">
         <v>384000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>325500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>433900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>418900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>222100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>77700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>33200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>39700</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2191,20 +2277,23 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="3">
         <v>100000</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2217,8 +2306,8 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -2241,38 +2330,41 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>25900</v>
+      </c>
+      <c r="E43" s="3">
         <v>18700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>18000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>11800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>16800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>10800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>400</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2291,8 +2383,11 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,38 +2436,41 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E45" s="3">
         <v>14900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>9900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>8300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>8800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>10000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>15900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>14600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6200</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2391,38 +2489,41 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>407600</v>
+      </c>
+      <c r="E46" s="3">
         <v>417600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>453500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>454000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>444500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>242800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>96800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>48900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>46200</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2441,8 +2542,11 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,38 +2595,41 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12200</v>
+        <v>12000</v>
       </c>
       <c r="E48" s="3">
         <v>12200</v>
       </c>
       <c r="F48" s="3">
+        <v>12200</v>
+      </c>
+      <c r="G48" s="3">
         <v>9200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>10500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>11700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>12600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>13600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>11800</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2541,38 +2648,41 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>834700</v>
+      </c>
+      <c r="E49" s="3">
         <v>830800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>417700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>5000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>5300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>5700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>6100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6400</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2591,8 +2701,11 @@
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,38 +2807,41 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E52" s="3">
         <v>9200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>8200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>7700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>7500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4400</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2741,8 +2860,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,38 +2913,41 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1263400</v>
+      </c>
+      <c r="E54" s="3">
         <v>1269800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>891500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>475500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>467500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>266900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>120500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>73200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>68900</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2841,8 +2966,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,38 +3010,39 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E57" s="3">
         <v>8700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>7100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>7400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5100</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2931,8 +3061,11 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2981,38 +3114,41 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>178900</v>
+      </c>
+      <c r="E59" s="3">
         <v>240700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>160400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>71700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>69300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>65100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>70500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>64700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>67900</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3031,38 +3167,41 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>184600</v>
+      </c>
+      <c r="E60" s="3">
         <v>249400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>167500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>79100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>73400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>68900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>75400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>70000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>72900</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3081,20 +3220,23 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>280300</v>
+      </c>
+      <c r="E61" s="3">
         <v>279800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>279400</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -3102,17 +3244,17 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>72500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>21100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>21000</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3131,37 +3273,40 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E62" s="3">
         <v>7000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>7500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>5600</v>
-      </c>
-      <c r="G62" s="3">
-        <v>5800</v>
       </c>
       <c r="H62" s="3">
         <v>5800</v>
       </c>
       <c r="I62" s="3">
+        <v>5800</v>
+      </c>
+      <c r="J62" s="3">
         <v>6000</v>
-      </c>
-      <c r="J62" s="3">
-        <v>5900</v>
       </c>
       <c r="K62" s="3">
         <v>5900</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
+      <c r="L62" s="3">
+        <v>5900</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
@@ -3181,8 +3326,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,38 +3485,41 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>474700</v>
+      </c>
+      <c r="E66" s="3">
         <v>536200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>454400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>84700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>79200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>74800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>154000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>97000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>99800</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3381,8 +3538,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3522,7 +3689,7 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>233000</v>
+        <v>0</v>
       </c>
       <c r="J70" s="3">
         <v>233000</v>
@@ -3531,7 +3698,7 @@
         <v>233000</v>
       </c>
       <c r="L70" s="3">
-        <v>0</v>
+        <v>233000</v>
       </c>
       <c r="M70" s="3">
         <v>0</v>
@@ -3551,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,38 +3771,41 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-460100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-482600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-420200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-371500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-366800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-350200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-334800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-320900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-318700</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3651,8 +3824,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,38 +3983,41 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>788700</v>
+      </c>
+      <c r="E76" s="3">
         <v>733600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>437100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>390800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>388300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>192100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-266500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-256800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-263900</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3851,8 +4036,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E80" s="2">
         <v>44439</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44347</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44255</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44165</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44074</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43982</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43890</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43799</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43708</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43616</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43524</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43434</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43343</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43251</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-62400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-48700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-16600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-15400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-14000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-18300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-15000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-15900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-6900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-18900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-14900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-15800</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,35 +4223,36 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E83" s="3">
         <v>11000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>8700</v>
-      </c>
-      <c r="F83" s="3">
-        <v>2100</v>
       </c>
       <c r="G83" s="3">
         <v>2100</v>
       </c>
       <c r="H83" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I83" s="3">
         <v>2000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2100</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4067,8 +4265,8 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="P83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -4076,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,35 +4539,38 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-21400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-11000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-27600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>10400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-12300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-15000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-8300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-10300</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4367,8 +4583,8 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
+      <c r="P89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q89" s="3">
         <v>0</v>
@@ -4376,8 +4592,11 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,35 +4615,36 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
         <v>300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-700</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-800</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4437,8 +4657,8 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -4446,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,35 +4772,38 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>700</v>
+      </c>
+      <c r="E94" s="3">
         <v>64900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-328700</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-500</v>
       </c>
       <c r="G94" s="3">
         <v>-500</v>
       </c>
       <c r="H94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I94" s="3">
         <v>-900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-800</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4587,8 +4816,8 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="P94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
@@ -4596,8 +4825,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,35 +5058,38 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E100" s="3">
         <v>4600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>248000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>5000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>209600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>160300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>53400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>4600</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4857,8 +5102,8 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
+      <c r="P100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
@@ -4866,8 +5111,11 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,35 +5164,38 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="E102" s="3">
         <v>58500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-108400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>14900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>196800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>144400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>44500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-6500</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4957,13 +5208,16 @@
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
+      <c r="P102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ACCD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ACCD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="92">
   <si>
     <t>ACCD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E7" s="2">
         <v>44530</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44439</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44347</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44255</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44165</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44074</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43982</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43890</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43799</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43708</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43616</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43524</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43434</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43343</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43251</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>93800</v>
+      </c>
+      <c r="E8" s="3">
         <v>83500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>73300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>59500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>59200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>38400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>36800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>35900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>44400</v>
-      </c>
-      <c r="L8" s="3">
-        <v>29700</v>
       </c>
       <c r="M8" s="3">
         <v>29700</v>
       </c>
       <c r="N8" s="3">
+        <v>29700</v>
+      </c>
+      <c r="O8" s="3">
         <v>28800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>35100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>21000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>20300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>18400</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>43600</v>
+      </c>
+      <c r="E9" s="3">
         <v>45200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>44300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>35900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>27600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>22700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>21100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>22200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>21900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>17500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>16800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>17400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>35200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>16000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>13800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>13200</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>50200</v>
+      </c>
+      <c r="E10" s="3">
         <v>38300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>29000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>23600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>31600</v>
-      </c>
-      <c r="H10" s="3">
-        <v>15700</v>
       </c>
       <c r="I10" s="3">
         <v>15700</v>
       </c>
       <c r="J10" s="3">
+        <v>15700</v>
+      </c>
+      <c r="K10" s="3">
         <v>13700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>22500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>12200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>12900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>11400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>6500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>5200</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1037,22 +1057,22 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>8400</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1081,61 +1101,67 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E15" s="3">
         <v>11300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>11000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>8700</v>
-      </c>
-      <c r="G15" s="3">
-        <v>2100</v>
       </c>
       <c r="H15" s="3">
         <v>2100</v>
       </c>
       <c r="I15" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J15" s="3">
         <v>2000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2000</v>
-      </c>
-      <c r="M15" s="3">
-        <v>2200</v>
       </c>
       <c r="N15" s="3">
         <v>2200</v>
       </c>
       <c r="O15" s="3">
+        <v>2200</v>
+      </c>
+      <c r="P15" s="3">
         <v>2500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>2700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>2400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>1800</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>123600</v>
+      </c>
+      <c r="E17" s="3">
         <v>56900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>147700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>107500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>64000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>54900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>49700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>48500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>45600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>47100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>43900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>44100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>41200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>39500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>34700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>33400</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-29800</v>
+      </c>
+      <c r="E18" s="3">
         <v>26600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-74400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-48000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-4800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-16500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-12900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-12600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-17400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-14200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-15300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-6100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-18500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-14400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-15000</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,13 +1312,14 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1300,16 +1334,16 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
       <c r="L20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M20" s="3">
         <v>-100</v>
@@ -1318,7 +1352,7 @@
         <v>-100</v>
       </c>
       <c r="O20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
@@ -1327,190 +1361,202 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="E21" s="3">
         <v>37800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-63400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-39400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-14400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-11000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-10700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>900</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3">
         <v>3200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-11600</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>800</v>
+      </c>
+      <c r="E22" s="3">
         <v>700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>2300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>700</v>
-      </c>
-      <c r="P22" s="3">
-        <v>500</v>
       </c>
       <c r="Q22" s="3">
         <v>500</v>
       </c>
       <c r="R22" s="3">
+        <v>500</v>
+      </c>
+      <c r="S22" s="3">
         <v>600</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-30700</v>
+      </c>
+      <c r="E23" s="3">
         <v>25800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-75200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-48700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-16600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-15400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-13900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-18300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-15000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-15900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-6900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-18900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-14900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-15800</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E24" s="3">
         <v>3300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-12800</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
@@ -1518,11 +1564,11 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
@@ -1530,22 +1576,25 @@
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-34600</v>
+      </c>
+      <c r="E26" s="3">
         <v>22500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-62400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-48700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-16600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-15400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-14000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-18300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-15000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-15900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-6900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-18900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-14900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-15800</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-34600</v>
+      </c>
+      <c r="E27" s="3">
         <v>22500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-62400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-48700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-16600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-15400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-14000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-18300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-15000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-15900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-6900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-18900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-14900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-15800</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,13 +1982,16 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1936,16 +2006,16 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M32" s="3">
         <v>100</v>
@@ -1954,7 +2024,7 @@
         <v>100</v>
       </c>
       <c r="O32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
@@ -1963,66 +2033,72 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>100</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-34600</v>
+      </c>
+      <c r="E33" s="3">
         <v>22500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-62400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-48700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-16600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-15400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-14000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-18300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-15000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-15900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-6900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-18900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-14900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-15800</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-34600</v>
+      </c>
+      <c r="E35" s="3">
         <v>22500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-62400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-48700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-16600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-15400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-14000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-18300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-15000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-15900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-6900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-18900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-14900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-15800</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E38" s="2">
         <v>44530</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44439</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44347</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44255</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44165</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44074</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43982</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43890</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43799</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43708</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43616</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43524</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43434</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43343</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43251</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,41 +2313,42 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>365900</v>
+      </c>
+      <c r="E41" s="3">
         <v>366000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>384000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>325500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>433900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>418900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>222100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>77700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>33200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>39700</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2280,8 +2367,11 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2291,12 +2381,12 @@
       <c r="E42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3">
         <v>100000</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2309,8 +2399,8 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -2333,41 +2423,44 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>30800</v>
+      </c>
+      <c r="E43" s="3">
         <v>25900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>18700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>18000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>11800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>16800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>10800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>400</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,41 +2535,44 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E45" s="3">
         <v>15700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>14900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>9900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>8300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>8800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>10000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>15900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>14600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>6200</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2492,41 +2591,44 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>409100</v>
+      </c>
+      <c r="E46" s="3">
         <v>407600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>417600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>453500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>454000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>444500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>242800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>96800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>48900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>46200</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2545,8 +2647,11 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,41 +2703,44 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>44900</v>
+      </c>
+      <c r="E48" s="3">
         <v>12000</v>
-      </c>
-      <c r="E48" s="3">
-        <v>12200</v>
       </c>
       <c r="F48" s="3">
         <v>12200</v>
       </c>
       <c r="G48" s="3">
+        <v>12200</v>
+      </c>
+      <c r="H48" s="3">
         <v>9200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>10500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>11700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>12600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>13600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>11800</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2651,41 +2759,44 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>822600</v>
+      </c>
+      <c r="E49" s="3">
         <v>834700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>830800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>417700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>5000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>5300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>5700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6400</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,41 +2927,44 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E52" s="3">
         <v>9100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>9200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>8200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>7700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>7000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4400</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,41 +3039,44 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1285500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1263400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1269800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>891500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>475500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>467500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>266900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>120500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>73200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>68900</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2969,8 +3095,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,41 +3141,42 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E57" s="3">
         <v>5700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>8700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>7100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>7400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5100</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3064,8 +3195,11 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3117,41 +3251,44 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>103900</v>
+      </c>
+      <c r="E59" s="3">
         <v>178900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>240700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>160400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>71700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>69300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>65100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>70500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>64700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>67900</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3170,41 +3307,44 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>111800</v>
+      </c>
+      <c r="E60" s="3">
         <v>184600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>249400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>167500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>79100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>73400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>68900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>75400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>70000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>72900</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3223,23 +3363,26 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>280700</v>
+      </c>
+      <c r="E61" s="3">
         <v>280300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>279800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>279400</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -3247,17 +3390,17 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>72500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>21100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>21000</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3276,40 +3419,43 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>37300</v>
+      </c>
+      <c r="E62" s="3">
         <v>9800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>7000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>7500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>5600</v>
-      </c>
-      <c r="H62" s="3">
-        <v>5800</v>
       </c>
       <c r="I62" s="3">
         <v>5800</v>
       </c>
       <c r="J62" s="3">
+        <v>5800</v>
+      </c>
+      <c r="K62" s="3">
         <v>6000</v>
-      </c>
-      <c r="K62" s="3">
-        <v>5900</v>
       </c>
       <c r="L62" s="3">
         <v>5900</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
+      <c r="M62" s="3">
+        <v>5900</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,41 +3643,44 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>429700</v>
+      </c>
+      <c r="E66" s="3">
         <v>474700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>536200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>454400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>84700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>79200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>74800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>154000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>97000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>99800</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3541,8 +3699,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3692,7 +3860,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>233000</v>
+        <v>0</v>
       </c>
       <c r="K70" s="3">
         <v>233000</v>
@@ -3701,7 +3869,7 @@
         <v>233000</v>
       </c>
       <c r="M70" s="3">
-        <v>0</v>
+        <v>233000</v>
       </c>
       <c r="N70" s="3">
         <v>0</v>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,41 +3945,44 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-494600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-460100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-482600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-420200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-371500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-366800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-350200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-334800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-320900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-318700</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3827,8 +4001,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,41 +4169,44 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>855800</v>
+      </c>
+      <c r="E76" s="3">
         <v>788700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>733600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>437100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>390800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>388300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>192100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-266500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-256800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-263900</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4039,8 +4225,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E80" s="2">
         <v>44530</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44439</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44347</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44255</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44165</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44074</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43982</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43890</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43799</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43708</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43616</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43524</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43434</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43343</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43251</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-34600</v>
+      </c>
+      <c r="E81" s="3">
         <v>22500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-62400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-48700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-16600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-15400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-14000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-18300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-15000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-15900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-6900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-18900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-14900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-15800</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,38 +4422,39 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E83" s="3">
         <v>11300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>11000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>8700</v>
-      </c>
-      <c r="G83" s="3">
-        <v>2100</v>
       </c>
       <c r="H83" s="3">
         <v>2100</v>
       </c>
       <c r="I83" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J83" s="3">
         <v>2000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2100</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4268,8 +4467,8 @@
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,38 +4756,41 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-21400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-11000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-27600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>10400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-12300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-15000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-8300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-10300</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4586,8 +4803,8 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R89" s="3">
         <v>0</v>
@@ -4595,8 +4812,11 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,38 +4836,39 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-700</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-800</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4660,8 +4881,8 @@
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,38 +5002,41 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E94" s="3">
         <v>700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>64900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-328700</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-500</v>
       </c>
       <c r="H94" s="3">
         <v>-500</v>
       </c>
       <c r="I94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J94" s="3">
         <v>-900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-800</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4819,8 +5049,8 @@
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5070,29 +5316,29 @@
         <v>2700</v>
       </c>
       <c r="E100" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F100" s="3">
         <v>4600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>248000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>5000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>209600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>160300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>53400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>4600</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5105,8 +5351,8 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R100" s="3">
         <v>0</v>
@@ -5114,8 +5360,11 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,38 +5416,41 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-18000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>58500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-108400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>14900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>196800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>144400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>44500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-6500</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5211,13 +5463,16 @@
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
+      <c r="Q102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ACCD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ACCD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="92">
   <si>
     <t>ACCD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,270 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E7" s="2">
         <v>44620</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44530</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44439</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44347</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44255</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44165</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44074</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43982</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43890</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43799</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43708</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43616</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43524</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43434</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43343</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43251</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>85500</v>
+      </c>
+      <c r="E8" s="3">
         <v>93800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>83500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>73300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>59500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>59200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>38400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>36800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>35900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>44400</v>
-      </c>
-      <c r="M8" s="3">
-        <v>29700</v>
       </c>
       <c r="N8" s="3">
         <v>29700</v>
       </c>
       <c r="O8" s="3">
+        <v>29700</v>
+      </c>
+      <c r="P8" s="3">
         <v>28800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>35100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>21000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>20300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>18400</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>47600</v>
+      </c>
+      <c r="E9" s="3">
         <v>43600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>45200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>44300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>35900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>27600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>22700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>21100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>22200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>21900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>17500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>16800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>17400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>35200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>16000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>13800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>13200</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>37900</v>
+      </c>
+      <c r="E10" s="3">
         <v>50200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>38300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>29000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>23600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>31600</v>
-      </c>
-      <c r="I10" s="3">
-        <v>15700</v>
       </c>
       <c r="J10" s="3">
         <v>15700</v>
       </c>
       <c r="K10" s="3">
+        <v>15700</v>
+      </c>
+      <c r="L10" s="3">
         <v>13700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>22500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>12200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>12900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>11400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>6500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>5200</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,34 +1065,37 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>299700</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>4500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>8400</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1104,8 +1124,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1113,55 +1136,58 @@
         <v>11600</v>
       </c>
       <c r="E15" s="3">
+        <v>11600</v>
+      </c>
+      <c r="F15" s="3">
         <v>11300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>11000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>8700</v>
-      </c>
-      <c r="H15" s="3">
-        <v>2100</v>
       </c>
       <c r="I15" s="3">
         <v>2100</v>
       </c>
       <c r="J15" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K15" s="3">
         <v>2000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>2000</v>
-      </c>
-      <c r="N15" s="3">
-        <v>2200</v>
       </c>
       <c r="O15" s="3">
         <v>2200</v>
       </c>
       <c r="P15" s="3">
+        <v>2200</v>
+      </c>
+      <c r="Q15" s="3">
         <v>2500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>2700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>2400</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>1800</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>431600</v>
+      </c>
+      <c r="E17" s="3">
         <v>123600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>56900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>147700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>107500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>64000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>54900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>49700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>48500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>45600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>47100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>43900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>44100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>41200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>39500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>34700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>33400</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-346100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-29800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>26600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-74400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-48000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-4800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-16500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-12900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-12600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-17400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-14200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-15300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-18500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-14400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-15000</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,17 +1346,18 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>-200</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
@@ -1337,16 +1371,16 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N20" s="3">
         <v>-100</v>
@@ -1355,7 +1389,7 @@
         <v>-100</v>
       </c>
       <c r="P20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
@@ -1364,202 +1398,214 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-334500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-18300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>37800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-63400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-39400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-14400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-11000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-10700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>900</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3">
         <v>3200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-11600</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>600</v>
+      </c>
+      <c r="E22" s="3">
         <v>800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>2300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>700</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>500</v>
       </c>
       <c r="R22" s="3">
         <v>500</v>
       </c>
       <c r="S22" s="3">
+        <v>500</v>
+      </c>
+      <c r="T22" s="3">
         <v>600</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-346700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-30700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>25800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-75200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-48700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-16600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-15400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-13900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-18300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-15000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-15900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-18900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-14900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-15800</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E24" s="3">
         <v>3900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-12800</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
@@ -1567,11 +1613,11 @@
         <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
@@ -1579,22 +1625,25 @@
         <v>0</v>
       </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-342800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-34600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>22500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-62400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-48700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-16600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-15400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-14000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-18300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-15000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-15900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-18900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-14900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-15800</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-342800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-34600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>22500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-62400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-48700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-16600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-15400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-14000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-18300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-15000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-15900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-18900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-14900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-15800</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,17 +2052,20 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>200</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
@@ -2009,16 +2079,16 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N32" s="3">
         <v>100</v>
@@ -2027,7 +2097,7 @@
         <v>100</v>
       </c>
       <c r="P32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
@@ -2036,69 +2106,75 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>100</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-342800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-34600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>22500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-62400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-48700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-16600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-15400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-14000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-18300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-15000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-15900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-18900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-14900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-15800</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-342800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-34600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>22500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-62400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-48700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-16600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-15400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-14000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-18300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-15000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-15900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-18900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-14900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-15800</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E38" s="2">
         <v>44620</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44530</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44439</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44347</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44255</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44165</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44074</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43982</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43890</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43799</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43708</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43616</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43524</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43434</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43343</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43251</v>
       </c>
-      <c r="T38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,44 +2400,45 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>335600</v>
+      </c>
+      <c r="E41" s="3">
         <v>365900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>366000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>384000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>325500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>433900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>418900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>222100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>77700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>33200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>39700</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2370,8 +2457,11 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2384,12 +2474,12 @@
       <c r="F42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="3">
         <v>100000</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2402,8 +2492,8 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -2426,44 +2516,47 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>28500</v>
+      </c>
+      <c r="E43" s="3">
         <v>30800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>25900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>18700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>18000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>11800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>16800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>10800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>400</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2482,8 +2575,11 @@
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,44 +2634,47 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E45" s="3">
         <v>12500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>15700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>14900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>9900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>8300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>8800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>10000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>15900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>14600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>6200</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2594,44 +2693,47 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>377600</v>
+      </c>
+      <c r="E46" s="3">
         <v>409100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>407600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>417600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>453500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>454000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>444500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>242800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>96800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>48900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>46200</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2650,8 +2752,11 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,44 +2811,47 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>45700</v>
+      </c>
+      <c r="E48" s="3">
         <v>44900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>12000</v>
-      </c>
-      <c r="F48" s="3">
-        <v>12200</v>
       </c>
       <c r="G48" s="3">
         <v>12200</v>
       </c>
       <c r="H48" s="3">
+        <v>12200</v>
+      </c>
+      <c r="I48" s="3">
         <v>9200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>10500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>11700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>12600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>13600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>11800</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2762,44 +2870,47 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>512500</v>
+      </c>
+      <c r="E49" s="3">
         <v>822600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>834700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>830800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>417700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>5000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>5300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>6400</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2818,8 +2929,11 @@
       <c r="T49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,44 +3047,47 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E52" s="3">
         <v>8900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>9100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>9200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>8200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>7500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>7000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4400</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2986,8 +3106,11 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,44 +3165,47 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>944500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1285500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1263400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1269800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>891500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>475500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>467500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>266900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>120500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>73200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>68900</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3098,8 +3224,11 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3272,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3151,35 +3282,35 @@
         <v>7800</v>
       </c>
       <c r="E57" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F57" s="3">
         <v>5700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>8700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>7100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>7400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5100</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3198,8 +3329,11 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3254,44 +3388,47 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>87700</v>
+      </c>
+      <c r="E59" s="3">
         <v>103900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>178900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>240700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>160400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>71700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>69300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>65100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>70500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>64700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>67900</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3310,44 +3447,47 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>95500</v>
+      </c>
+      <c r="E60" s="3">
         <v>111800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>184600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>249400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>167500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>79100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>73400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>68900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>75400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>70000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>72900</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3366,26 +3506,29 @@
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>281100</v>
+      </c>
+      <c r="E61" s="3">
         <v>280700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>280300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>279800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>279400</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -3393,17 +3536,17 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>72500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>21100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>21000</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3422,43 +3565,46 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>33400</v>
+      </c>
+      <c r="E62" s="3">
         <v>37300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>9800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>7000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>7500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>5600</v>
-      </c>
-      <c r="I62" s="3">
-        <v>5800</v>
       </c>
       <c r="J62" s="3">
         <v>5800</v>
       </c>
       <c r="K62" s="3">
+        <v>5800</v>
+      </c>
+      <c r="L62" s="3">
         <v>6000</v>
-      </c>
-      <c r="L62" s="3">
-        <v>5900</v>
       </c>
       <c r="M62" s="3">
         <v>5900</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
+      <c r="N62" s="3">
+        <v>5900</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
@@ -3478,8 +3624,11 @@
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,44 +3801,47 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>409900</v>
+      </c>
+      <c r="E66" s="3">
         <v>429700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>474700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>536200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>454400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>84700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>79200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>74800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>154000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>97000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>99800</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3702,8 +3860,11 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3863,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
-        <v>233000</v>
+        <v>0</v>
       </c>
       <c r="L70" s="3">
         <v>233000</v>
@@ -3872,7 +4040,7 @@
         <v>233000</v>
       </c>
       <c r="N70" s="3">
-        <v>0</v>
+        <v>233000</v>
       </c>
       <c r="O70" s="3">
         <v>0</v>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,44 +4119,47 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-837500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-494600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-460100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-482600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-420200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-371500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-366800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-350200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-334800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-320900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-318700</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4004,8 +4178,11 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,44 +4355,47 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>534500</v>
+      </c>
+      <c r="E76" s="3">
         <v>855800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>788700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>733600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>437100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>390800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>388300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>192100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-266500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-256800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-263900</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4228,8 +4414,11 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E80" s="2">
         <v>44620</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44530</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44439</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44347</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44255</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44165</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44074</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43982</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43890</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43799</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43708</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43616</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43524</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43434</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43343</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43251</v>
       </c>
-      <c r="T80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-342800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-34600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>22500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-62400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-48700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-16600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-15400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-14000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-18300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-15000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-15900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-18900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-14900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-15800</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4621,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4432,32 +4631,32 @@
         <v>11600</v>
       </c>
       <c r="E83" s="3">
+        <v>11600</v>
+      </c>
+      <c r="F83" s="3">
         <v>11300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>11000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>8700</v>
-      </c>
-      <c r="H83" s="3">
-        <v>2100</v>
       </c>
       <c r="I83" s="3">
         <v>2100</v>
       </c>
       <c r="J83" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K83" s="3">
         <v>2000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2100</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4470,8 +4669,8 @@
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
+      <c r="R83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
@@ -4479,8 +4678,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,41 +4973,44 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-30500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-21400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-11000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-27600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>10400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-12300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-15000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-8300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-10300</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4806,8 +5023,8 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
+      <c r="R89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S89" s="3">
         <v>0</v>
@@ -4815,8 +5032,11 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5057,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4846,32 +5067,32 @@
         <v>-500</v>
       </c>
       <c r="E91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-700</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-800</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4884,8 +5105,8 @@
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -4893,8 +5114,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,41 +5232,44 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>64900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-328700</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-500</v>
       </c>
       <c r="I94" s="3">
         <v>-500</v>
       </c>
       <c r="J94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-800</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5052,8 +5282,8 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="R94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
@@ -5061,8 +5291,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,41 +5550,44 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2700</v>
+        <v>1500</v>
       </c>
       <c r="E100" s="3">
         <v>2700</v>
       </c>
       <c r="F100" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G100" s="3">
         <v>4600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>248000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>5000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>209600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>160300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>53400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>4600</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5354,8 +5600,8 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
+      <c r="R100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S100" s="3">
         <v>0</v>
@@ -5363,8 +5609,11 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,41 +5668,44 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-30200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-18000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>58500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-108400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>14900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>196800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>144400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>44500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-6500</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5466,13 +5718,16 @@
       <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
+      <c r="R102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S102" s="3">
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ACCD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ACCD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="92">
   <si>
     <t>ACCD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,295 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44895</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44804</v>
+      </c>
+      <c r="F7" s="2">
         <v>44712</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44620</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44530</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44439</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44347</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44255</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44165</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44074</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43982</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43890</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43799</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43708</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43616</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43524</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43434</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43343</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43251</v>
       </c>
-      <c r="U7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>90900</v>
+      </c>
+      <c r="E8" s="3">
+        <v>87600</v>
+      </c>
+      <c r="F8" s="3">
         <v>85500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>93800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>83500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>73300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>59500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>59200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>38400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>36800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>35900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>44400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>29700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>29700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>28800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>35100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>21000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>20300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>18400</v>
       </c>
-      <c r="U8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>50400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>49800</v>
+      </c>
+      <c r="F9" s="3">
         <v>47600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>43600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>45200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>44300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>35900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>27600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>22700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>21100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>22200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>21900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>17500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>16800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>17400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>35200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>16000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>13800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>13200</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>40500</v>
+      </c>
+      <c r="E10" s="3">
+        <v>37800</v>
+      </c>
+      <c r="F10" s="3">
         <v>37900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>50200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>38300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>29000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>23600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>31600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>15700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>15700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>13700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>22500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>12200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>12900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>11400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>-100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>5000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>6500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>5200</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +975,10 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,8 +1036,14 @@
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,40 +1101,46 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>400</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>299700</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>4500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>8400</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1127,8 +1166,14 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1139,55 +1184,61 @@
         <v>11600</v>
       </c>
       <c r="F15" s="3">
+        <v>11600</v>
+      </c>
+      <c r="G15" s="3">
+        <v>11600</v>
+      </c>
+      <c r="H15" s="3">
         <v>11300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>11000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>8700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>2100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>2100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>2000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>1900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>2100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>2000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>2200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>2200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>2500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>2700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>2400</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>1800</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1257,140 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>131300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>133600</v>
+      </c>
+      <c r="F17" s="3">
         <v>431600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>123600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>56900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>147700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>107500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>64000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>54900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>49700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>48500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>45600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>47100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>43900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>44100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>41200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>39500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>34700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>33400</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-40400</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-46000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-346100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-29800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>26600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-74400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-48000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-4800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-16500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-12900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-12600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-1200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-17400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-14200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-15300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-6100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-18500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-14400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-15000</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,23 +1412,25 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1374,140 +1441,152 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P20" s="3">
         <v>-100</v>
       </c>
       <c r="Q20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-334500</v>
+        <v>-28200</v>
       </c>
       <c r="E21" s="3">
+        <v>-34700</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-335100</v>
+      </c>
+      <c r="G21" s="3">
         <v>-18300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>37800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-63400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-39400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-2600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-14400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-11000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-10700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>900</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S21" s="3">
         <v>3200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-11600</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>600</v>
-      </c>
-      <c r="E22" s="3">
-        <v>800</v>
-      </c>
-      <c r="F22" s="3">
-        <v>700</v>
+      <c r="D22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G22" s="3">
         <v>800</v>
       </c>
       <c r="H22" s="3">
+        <v>700</v>
+      </c>
+      <c r="I22" s="3">
+        <v>800</v>
+      </c>
+      <c r="J22" s="3">
         <v>600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>2300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>1300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>800</v>
-      </c>
-      <c r="O22" s="3">
-        <v>700</v>
-      </c>
-      <c r="P22" s="3">
-        <v>500</v>
       </c>
       <c r="Q22" s="3">
         <v>700</v>
@@ -1516,134 +1595,152 @@
         <v>500</v>
       </c>
       <c r="S22" s="3">
+        <v>700</v>
+      </c>
+      <c r="T22" s="3">
         <v>500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
+        <v>500</v>
+      </c>
+      <c r="V22" s="3">
         <v>600</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-39800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-46300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-346700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-30700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>25800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-75200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-48700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-4800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-16600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-15400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-13900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-2100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-18300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-15000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-15900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-6900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-18900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-14900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-15800</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>200</v>
+      </c>
+      <c r="F24" s="3">
         <v>-3900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>3900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>3300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-12800</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
         <v>0</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1798,144 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-39900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-46500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-342800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-34600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>22500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-62400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-48700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-4700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-16600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-15400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-14000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-2100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-18300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-15000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-15900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-6900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-18900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-14900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-15800</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-39900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-46500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-342800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-34600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>22500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-62400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-48700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-4700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-16600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-15400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-14000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-2100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-18300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-15000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-15900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-6900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-18900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-14900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-15800</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1993,14 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +2058,14 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2123,14 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,23 +2188,29 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="E32" s="3">
+        <v>300</v>
+      </c>
+      <c r="F32" s="3">
+        <v>700</v>
+      </c>
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2082,99 +2221,111 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P32" s="3">
         <v>100</v>
       </c>
       <c r="Q32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>100</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-39900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-46500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-342800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-34600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>22500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-62400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-48700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-4700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-16600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-15400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-14000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-2100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-18300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-15000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-15900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-6900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-18900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-14900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-15800</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2383,149 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-39900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-46500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-342800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-34600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>22500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-62400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-48700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-4700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-16600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-15400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-14000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-2100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-18300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-15000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-15900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-6900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-18900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-14900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-15800</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44895</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44804</v>
+      </c>
+      <c r="F38" s="2">
         <v>44712</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44620</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44530</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44439</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44347</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44255</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44165</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44074</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43982</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43890</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43799</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43708</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43616</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43524</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43434</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43343</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43251</v>
       </c>
-      <c r="U38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2547,10 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,50 +2572,52 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>325600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>330600</v>
+      </c>
+      <c r="F41" s="3">
         <v>335600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>365900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>366000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>384000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>325500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>433900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>418900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>222100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>77700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>33200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>39700</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2460,8 +2633,14 @@
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2477,15 +2656,15 @@
       <c r="G42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3">
         <v>100000</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2495,11 +2674,11 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
-      </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
@@ -2519,50 +2698,56 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>24200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>30600</v>
+      </c>
+      <c r="F43" s="3">
         <v>28500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>30800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>25900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>18700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>18000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>11800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>16800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>10800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>3200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>400</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2578,8 +2763,14 @@
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,50 +2828,56 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E45" s="3">
         <v>13500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
+        <v>13500</v>
+      </c>
+      <c r="G45" s="3">
         <v>12500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>15700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>14900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>9900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>8300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>8800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>10000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>15900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>14600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>6200</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2696,50 +2893,56 @@
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>366200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>374800</v>
+      </c>
+      <c r="F46" s="3">
         <v>377600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>409100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>407600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>417600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>453500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>454000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>444500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>242800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>96800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>48900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>46200</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2755,8 +2958,14 @@
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,50 +3023,56 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>44500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>44600</v>
+      </c>
+      <c r="F48" s="3">
         <v>45700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>44900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>12000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>12200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>12200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>9200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>10500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>11700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>12600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>13600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>11800</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2873,50 +3088,56 @@
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>491800</v>
+      </c>
+      <c r="E49" s="3">
+        <v>502100</v>
+      </c>
+      <c r="F49" s="3">
         <v>512500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>822600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>834700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>830800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>417700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>4600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>5000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>5300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>5700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>6100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>6400</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2932,8 +3153,14 @@
       <c r="U49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3218,14 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,50 +3283,56 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E52" s="3">
+        <v>10200</v>
+      </c>
+      <c r="F52" s="3">
         <v>8700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>8900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>9100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>9200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>8200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>7700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>7500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>7000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>5400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>4600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>4400</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3109,8 +3348,14 @@
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,50 +3413,56 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>913800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>931700</v>
+      </c>
+      <c r="F54" s="3">
         <v>944500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1285500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1263400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1269800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>891500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>475500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>467500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>266900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>120500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>73200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>68900</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3227,8 +3478,14 @@
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3507,10 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,50 +3532,52 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>11100</v>
+      </c>
+      <c r="F57" s="3">
         <v>7800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>7800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>5700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>8700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>7100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>7400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>4100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>3800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>4900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>5300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>5100</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3332,8 +3593,14 @@
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3391,50 +3658,56 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>106600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>101600</v>
+      </c>
+      <c r="F59" s="3">
         <v>87700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>103900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>178900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>240700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>160400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>71700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>69300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>65100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>70500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>64700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>67900</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3450,50 +3723,56 @@
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>116600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>112700</v>
+      </c>
+      <c r="F60" s="3">
         <v>95500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>111800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>184600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>249400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>167500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>79100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>73400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>68900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>75400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>70000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>72900</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3509,50 +3788,56 @@
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>281900</v>
+      </c>
+      <c r="E61" s="3">
+        <v>281500</v>
+      </c>
+      <c r="F61" s="3">
         <v>281100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>280700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>280300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>279800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>279400</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>72500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>21100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>21000</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3568,50 +3853,56 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>29300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>31200</v>
+      </c>
+      <c r="F62" s="3">
         <v>33400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>37300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>9800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>7000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>7500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>5600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>5800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>5800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>6000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>5900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>5900</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3627,8 +3918,14 @@
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3983,14 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +4048,14 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,50 +4113,56 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>427800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>425400</v>
+      </c>
+      <c r="F66" s="3">
         <v>409900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>429700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>474700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>536200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>454400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>84700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>79200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>74800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>154000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>97000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>99800</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3863,8 +4178,14 @@
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4207,10 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4268,14 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4333,14 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4034,19 +4369,19 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
-        <v>233000</v>
+        <v>0</v>
       </c>
       <c r="M70" s="3">
-        <v>233000</v>
+        <v>0</v>
       </c>
       <c r="N70" s="3">
         <v>233000</v>
       </c>
       <c r="O70" s="3">
-        <v>0</v>
+        <v>233000</v>
       </c>
       <c r="P70" s="3">
-        <v>0</v>
+        <v>233000</v>
       </c>
       <c r="Q70" s="3">
         <v>0</v>
@@ -4063,8 +4398,14 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,50 +4463,56 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-923900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-884000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-837500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-494600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-460100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-482600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-420200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-371500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-366800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-350200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-334800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-320900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-318700</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4181,8 +4528,14 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4593,14 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4658,14 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,50 +4723,56 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>486000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>506300</v>
+      </c>
+      <c r="F76" s="3">
         <v>534500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>855800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>788700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>733600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>437100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>390800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>388300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>192100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-266500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-256800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-263900</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4417,8 +4788,14 @@
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4853,149 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44895</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44804</v>
+      </c>
+      <c r="F80" s="2">
         <v>44712</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44620</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44530</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44439</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44347</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44255</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44165</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44074</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43982</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43890</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43799</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43708</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43616</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43524</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43434</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43343</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43251</v>
       </c>
-      <c r="U80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-39900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-46500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-342800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-34600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>22500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-62400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-48700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-4700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-16600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-15400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-14000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-2100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-18300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-15000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-15900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-6900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-18900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-14900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-15800</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +5017,10 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4634,35 +5031,35 @@
         <v>11600</v>
       </c>
       <c r="F83" s="3">
+        <v>11600</v>
+      </c>
+      <c r="G83" s="3">
+        <v>11600</v>
+      </c>
+      <c r="H83" s="3">
         <v>11300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>11000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>8700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>2100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>2100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>2000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>1900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>2100</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4672,17 +5069,23 @@
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
-      </c>
-      <c r="T83" s="3">
-        <v>0</v>
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +5143,14 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5208,14 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5273,14 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5338,14 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,47 +5403,53 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F89" s="3">
         <v>-30500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-2300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-21400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-11000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-27600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>10400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-12300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-15000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-8300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-10300</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5026,17 +5459,23 @@
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
-      <c r="T89" s="3">
-        <v>0</v>
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,8 +5497,10 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5067,38 +5508,38 @@
         <v>-500</v>
       </c>
       <c r="E91" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F91" s="3">
         <v>-500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-700</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-800</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5108,17 +5549,23 @@
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5623,14 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,47 +5688,53 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F94" s="3">
         <v>-1300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>64900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-328700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-500</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-500</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-900</v>
       </c>
       <c r="L94" s="3">
         <v>-500</v>
       </c>
       <c r="M94" s="3">
+        <v>-900</v>
+      </c>
+      <c r="N94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O94" s="3">
         <v>-800</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5285,17 +5744,23 @@
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-      <c r="T94" s="3">
-        <v>0</v>
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5782,10 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5843,14 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5908,14 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5973,14 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,47 +6038,53 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F100" s="3">
         <v>1500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>2700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>2700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>4600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>248000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>5000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>209600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>160300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>53400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>4600</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5603,17 +6094,23 @@
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-      <c r="T100" s="3">
-        <v>0</v>
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,47 +6168,53 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-30200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-18000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>58500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-108400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>14900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>196800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>144400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>44500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-6500</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5721,13 +6224,19 @@
       <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
-      <c r="T102" s="3">
-        <v>0</v>
+      <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ACCD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ACCD_QTR_FIN.xlsx
@@ -5505,22 +5505,22 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-500</v>
+        <v>-1900</v>
       </c>
       <c r="E91" s="3">
-        <v>-900</v>
+        <v>-1600</v>
       </c>
       <c r="F91" s="3">
-        <v>-500</v>
+        <v>-1300</v>
       </c>
       <c r="G91" s="3">
-        <v>-500</v>
+        <v>-700</v>
       </c>
       <c r="H91" s="3">
-        <v>-300</v>
+        <v>-1000</v>
       </c>
       <c r="I91" s="3">
-        <v>300</v>
+        <v>-1200</v>
       </c>
       <c r="J91" s="3">
         <v>-700</v>

--- a/AAII_Financials/Quarterly/ACCD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ACCD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="92">
   <si>
     <t>ACCD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44985</v>
+      </c>
+      <c r="E7" s="2">
         <v>44895</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44804</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44712</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44620</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44530</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44439</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44347</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44255</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44165</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44074</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43982</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43890</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43799</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43708</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43616</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43524</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43434</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43343</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43251</v>
       </c>
-      <c r="W7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>99000</v>
+      </c>
+      <c r="E8" s="3">
         <v>90900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>87600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>85500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>93800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>83500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>73300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>59500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>59200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>38400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>36800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>35900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>44400</v>
-      </c>
-      <c r="P8" s="3">
-        <v>29700</v>
       </c>
       <c r="Q8" s="3">
         <v>29700</v>
       </c>
       <c r="R8" s="3">
+        <v>29700</v>
+      </c>
+      <c r="S8" s="3">
         <v>28800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>35100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>21000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>20300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>18400</v>
       </c>
-      <c r="W8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>51000</v>
+      </c>
+      <c r="E9" s="3">
         <v>50400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>49800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>47600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>43600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>45200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>44300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>35900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>27600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>22700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>21100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>22200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>21900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>17500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>16800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>17400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>35200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>16000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>13800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>13200</v>
       </c>
-      <c r="W9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E10" s="3">
         <v>40500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>37800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>37900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>50200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>38300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>29000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>23600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>31600</v>
-      </c>
-      <c r="L10" s="3">
-        <v>15700</v>
       </c>
       <c r="M10" s="3">
         <v>15700</v>
       </c>
       <c r="N10" s="3">
+        <v>15700</v>
+      </c>
+      <c r="O10" s="3">
         <v>13700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>22500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>12200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>12900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>11400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>5000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>6500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>5200</v>
       </c>
-      <c r="W10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,43 +1124,46 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>800</v>
+      </c>
+      <c r="E14" s="3">
         <v>400</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>299700</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>4500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>8400</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1190,55 +1213,58 @@
         <v>11600</v>
       </c>
       <c r="H15" s="3">
+        <v>11600</v>
+      </c>
+      <c r="I15" s="3">
         <v>11300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>11000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>8700</v>
-      </c>
-      <c r="K15" s="3">
-        <v>2100</v>
       </c>
       <c r="L15" s="3">
         <v>2100</v>
       </c>
       <c r="M15" s="3">
+        <v>2100</v>
+      </c>
+      <c r="N15" s="3">
         <v>2000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>1900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>2100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>2000</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>2200</v>
       </c>
       <c r="R15" s="3">
         <v>2200</v>
       </c>
       <c r="S15" s="3">
+        <v>2200</v>
+      </c>
+      <c r="T15" s="3">
         <v>2500</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>2700</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>2400</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>1800</v>
       </c>
-      <c r="W15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>130200</v>
+      </c>
+      <c r="E17" s="3">
         <v>131300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>133600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>431600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>123600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>56900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>147700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>107500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>64000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>54900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>49700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>48500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>45600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>47100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>43900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>44100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>41200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>39500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>34700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>33400</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-31200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-40400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-46000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-346100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-29800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>26600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-74400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-48000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-16500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-12900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-12600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-17400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-14200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-15300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-6100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-18500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-14400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-15000</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,26 +1447,27 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>700</v>
+      </c>
+      <c r="E20" s="3">
         <v>600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1447,16 +1481,16 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
       <c r="P20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="3">
         <v>-100</v>
@@ -1465,7 +1499,7 @@
         <v>-100</v>
       </c>
       <c r="S20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T20" s="3">
         <v>0</v>
@@ -1474,78 +1508,84 @@
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>-100</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-28200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-34700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-335100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-18300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>37800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-63400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-39400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-14400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-11000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-10700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>900</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T21" s="3">
         <v>3200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-11600</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1558,154 +1598,160 @@
       <c r="F22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3">
         <v>800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>2300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>700</v>
-      </c>
-      <c r="T22" s="3">
-        <v>500</v>
       </c>
       <c r="U22" s="3">
         <v>500</v>
       </c>
       <c r="V22" s="3">
+        <v>500</v>
+      </c>
+      <c r="W22" s="3">
         <v>600</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-30500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-39800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-46300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-346700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-30700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>25800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-75200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-48700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-16600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-15400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-13900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-18300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-15000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-15900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-6900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-18900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-14900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-15800</v>
       </c>
-      <c r="W23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-3900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-12800</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>-100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
@@ -1713,11 +1759,11 @@
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
@@ -1725,22 +1771,25 @@
         <v>0</v>
       </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>100</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
       <c r="U24" s="3">
         <v>0</v>
       </c>
       <c r="V24" s="3">
         <v>0</v>
       </c>
-      <c r="W24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-30400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-39900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-46500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-342800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-34600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>22500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-62400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-48700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-16600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-15400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-14000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-18300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-15000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-15900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-6900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-18900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-14900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-15800</v>
       </c>
-      <c r="W26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-30400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-39900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-46500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-342800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-34600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>22500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-62400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-48700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-16600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-15400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-14000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-18300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-15000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-15900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-6900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-18900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-14900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-15800</v>
       </c>
-      <c r="W27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,26 +2261,29 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -2227,16 +2297,16 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
       <c r="P32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="3">
         <v>100</v>
@@ -2245,7 +2315,7 @@
         <v>100</v>
       </c>
       <c r="S32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T32" s="3">
         <v>0</v>
@@ -2254,78 +2324,84 @@
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>100</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-30400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-39900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-46500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-342800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-34600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>22500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-62400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-48700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-16600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-15400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-14000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-18300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-15000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-15900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-6900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-18900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-14900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-15800</v>
       </c>
-      <c r="W33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-30400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-39900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-46500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-342800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-34600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>22500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-62400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-48700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-16600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-15400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-14000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-18300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-15000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-15900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-6900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-18900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-14900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-15800</v>
       </c>
-      <c r="W35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44985</v>
+      </c>
+      <c r="E38" s="2">
         <v>44895</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44804</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44712</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44620</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44530</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44439</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44347</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44255</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44165</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44074</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43982</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43890</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43799</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43708</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43616</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43524</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43434</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43343</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43251</v>
       </c>
-      <c r="W38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,53 +2660,54 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>321100</v>
+      </c>
+      <c r="E41" s="3">
         <v>325600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>330600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>335600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>365900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>366000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>384000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>325500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>433900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>418900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>222100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>77700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>33200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>39700</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2639,8 +2726,11 @@
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2662,12 +2752,12 @@
       <c r="I42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K42" s="3">
         <v>100000</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2680,8 +2770,8 @@
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
+      <c r="P42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
@@ -2704,53 +2794,56 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>26700</v>
+      </c>
+      <c r="E43" s="3">
         <v>24200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>30600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>28500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>30800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>25900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>18700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>18000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>11800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>16800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>10800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>400</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2769,8 +2862,11 @@
       <c r="W43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,53 +2930,56 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E45" s="3">
         <v>16400</v>
-      </c>
-      <c r="E45" s="3">
-        <v>13500</v>
       </c>
       <c r="F45" s="3">
         <v>13500</v>
       </c>
       <c r="G45" s="3">
+        <v>13500</v>
+      </c>
+      <c r="H45" s="3">
         <v>12500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>15700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>14900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>9900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>8300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>8800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>10000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>15900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>14600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>6200</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2899,53 +2998,56 @@
       <c r="W45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>365900</v>
+      </c>
+      <c r="E46" s="3">
         <v>366200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>374800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>377600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>409100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>407600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>417600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>453500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>454000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>444500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>242800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>96800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>48900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>46200</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2964,8 +3066,11 @@
       <c r="W46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,53 +3134,56 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>44300</v>
+      </c>
+      <c r="E48" s="3">
         <v>44500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>44600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>45700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>44900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>12000</v>
-      </c>
-      <c r="I48" s="3">
-        <v>12200</v>
       </c>
       <c r="J48" s="3">
         <v>12200</v>
       </c>
       <c r="K48" s="3">
+        <v>12200</v>
+      </c>
+      <c r="L48" s="3">
         <v>9200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>10500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>11700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>12600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>13600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>11800</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3094,53 +3202,56 @@
       <c r="W48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>481400</v>
+      </c>
+      <c r="E49" s="3">
         <v>491800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>502100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>512500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>822600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>834700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>830800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>417700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>6100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>6400</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,53 +3406,56 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E52" s="3">
         <v>11300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>10200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>8700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>8900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>9100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>9200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>8200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4400</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,53 +3542,56 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>903100</v>
+      </c>
+      <c r="E54" s="3">
         <v>913800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>931700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>944500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1285500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1263400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1269800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>891500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>475500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>467500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>266900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>120500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>73200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>68900</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3484,8 +3610,11 @@
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,53 +3664,54 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E57" s="3">
         <v>10000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>11100</v>
-      </c>
-      <c r="F57" s="3">
-        <v>7800</v>
       </c>
       <c r="G57" s="3">
         <v>7800</v>
       </c>
       <c r="H57" s="3">
+        <v>7800</v>
+      </c>
+      <c r="I57" s="3">
         <v>5700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>8700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>7100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>5100</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3599,8 +3730,11 @@
       <c r="W57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3664,53 +3798,56 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>109300</v>
+      </c>
+      <c r="E59" s="3">
         <v>106600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>101600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>87700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>103900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>178900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>240700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>160400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>71700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>69300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>65100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>70500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>64700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>67900</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3729,53 +3866,56 @@
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>119400</v>
+      </c>
+      <c r="E60" s="3">
         <v>116600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>112700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>95500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>111800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>184600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>249400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>167500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>79100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>73400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>68900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>75400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>70000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>72900</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3794,35 +3934,38 @@
       <c r="W60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>282300</v>
+      </c>
+      <c r="E61" s="3">
         <v>281900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>281500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>281100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>280700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>280300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>279800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>279400</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -3830,17 +3973,17 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>72500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>21100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>21000</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -3859,52 +4002,55 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>27500</v>
+      </c>
+      <c r="E62" s="3">
         <v>29300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>31200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>33400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>37300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>9800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>7000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>7500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5600</v>
-      </c>
-      <c r="L62" s="3">
-        <v>5800</v>
       </c>
       <c r="M62" s="3">
         <v>5800</v>
       </c>
       <c r="N62" s="3">
+        <v>5800</v>
+      </c>
+      <c r="O62" s="3">
         <v>6000</v>
-      </c>
-      <c r="O62" s="3">
-        <v>5900</v>
       </c>
       <c r="P62" s="3">
         <v>5900</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>3</v>
+      <c r="Q62" s="3">
+        <v>5900</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>3</v>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,53 +4274,56 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>429300</v>
+      </c>
+      <c r="E66" s="3">
         <v>427800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>425400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>409900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>429700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>474700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>536200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>454400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>84700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>79200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>74800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>154000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>97000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>99800</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4184,8 +4342,11 @@
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4375,7 +4543,7 @@
         <v>0</v>
       </c>
       <c r="N70" s="3">
-        <v>233000</v>
+        <v>0</v>
       </c>
       <c r="O70" s="3">
         <v>233000</v>
@@ -4384,7 +4552,7 @@
         <v>233000</v>
       </c>
       <c r="Q70" s="3">
-        <v>0</v>
+        <v>233000</v>
       </c>
       <c r="R70" s="3">
         <v>0</v>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,53 +4640,56 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-954300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-923900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-884000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-837500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-494600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-460100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-482600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-420200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-371500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-366800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-350200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-334800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-320900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-318700</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4534,8 +4708,11 @@
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,53 +4912,56 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>473800</v>
+      </c>
+      <c r="E76" s="3">
         <v>486000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>506300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>534500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>855800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>788700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>733600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>437100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>390800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>388300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>192100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-266500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-256800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-263900</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4794,8 +4980,11 @@
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44985</v>
+      </c>
+      <c r="E80" s="2">
         <v>44895</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44804</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44712</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44620</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44530</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44439</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44347</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44255</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44165</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44074</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43982</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43890</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43799</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43708</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43616</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43524</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43434</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43343</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43251</v>
       </c>
-      <c r="W80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-30400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-39900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-46500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-342800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-34600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>22500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-62400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-48700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-16600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-15400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-14000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-18300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-15000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-15900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-6900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-18900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-14900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-15800</v>
       </c>
-      <c r="W81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5037,32 +5236,32 @@
         <v>11600</v>
       </c>
       <c r="H83" s="3">
+        <v>11600</v>
+      </c>
+      <c r="I83" s="3">
         <v>11300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>11000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>8700</v>
-      </c>
-      <c r="K83" s="3">
-        <v>2100</v>
       </c>
       <c r="L83" s="3">
         <v>2100</v>
       </c>
       <c r="M83" s="3">
+        <v>2100</v>
+      </c>
+      <c r="N83" s="3">
         <v>2000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>2100</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
@@ -5075,8 +5274,8 @@
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U83" s="3">
-        <v>0</v>
+      <c r="U83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V83" s="3">
         <v>0</v>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,50 +5623,53 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-4700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-30500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-21400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-11000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-27600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>10400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-12300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-15000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-8300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-10300</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5465,8 +5682,8 @@
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
+      <c r="U89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V89" s="3">
         <v>0</v>
@@ -5474,8 +5691,11 @@
       <c r="W89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,50 +5719,51 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-700</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-800</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5555,8 +5776,8 @@
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
+      <c r="U91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,50 +5921,53 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>64900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-328700</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-500</v>
       </c>
       <c r="L94" s="3">
         <v>-500</v>
       </c>
       <c r="M94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N94" s="3">
         <v>-900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-800</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5750,8 +5980,8 @@
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
+      <c r="U94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V94" s="3">
         <v>0</v>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,50 +6287,53 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
         <v>1600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1500</v>
-      </c>
-      <c r="G100" s="3">
-        <v>2700</v>
       </c>
       <c r="H100" s="3">
         <v>2700</v>
       </c>
       <c r="I100" s="3">
+        <v>2700</v>
+      </c>
+      <c r="J100" s="3">
         <v>4600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>248000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>5000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>209600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>160300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>53400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>4600</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
@@ -6100,8 +6346,8 @@
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
+      <c r="U100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V100" s="3">
         <v>0</v>
@@ -6109,8 +6355,11 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,50 +6423,53 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-5000</v>
+        <v>-4600</v>
       </c>
       <c r="E102" s="3">
         <v>-5000</v>
       </c>
       <c r="F102" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="G102" s="3">
         <v>-30200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-18000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>58500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-108400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>14900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>196800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>144400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>44500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-6500</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
@@ -6230,13 +6482,16 @@
       <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
+      <c r="U102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V102" s="3">
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ACCD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ACCD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="92">
   <si>
     <t>ACCD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,321 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45077</v>
+      </c>
+      <c r="E7" s="2">
         <v>44985</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44895</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44804</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44712</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44620</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44530</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44439</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44347</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44255</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44165</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44074</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43982</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43890</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43799</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43708</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43616</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43524</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43434</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43343</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43251</v>
       </c>
-      <c r="X7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>93200</v>
+      </c>
+      <c r="E8" s="3">
         <v>99000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>90900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>87600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>85500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>93800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>83500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>73300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>59500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>59200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>38400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>36800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>35900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>44400</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>29700</v>
       </c>
       <c r="R8" s="3">
         <v>29700</v>
       </c>
       <c r="S8" s="3">
+        <v>29700</v>
+      </c>
+      <c r="T8" s="3">
         <v>28800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>35100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>21000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>20300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>18400</v>
       </c>
-      <c r="X8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>54200</v>
+      </c>
+      <c r="E9" s="3">
         <v>51000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>50400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>49800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>47600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>43600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>45200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>44300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>35900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>27600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>22700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>21100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>22200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>21900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>17500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>16800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>17400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>35200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>16000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>13800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>13200</v>
       </c>
-      <c r="X9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>39000</v>
+      </c>
+      <c r="E10" s="3">
         <v>48000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>40500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>37800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>37900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>50200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>38300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>29000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>23600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>31600</v>
-      </c>
-      <c r="M10" s="3">
-        <v>15700</v>
       </c>
       <c r="N10" s="3">
         <v>15700</v>
       </c>
       <c r="O10" s="3">
+        <v>15700</v>
+      </c>
+      <c r="P10" s="3">
         <v>13700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>22500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>12200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>12900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>11400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>-100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>5000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>6500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>5200</v>
       </c>
-      <c r="X10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1004,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1073,11 @@
       <c r="X12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,46 +1144,49 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>400</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>299700</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>4500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>8400</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1195,8 +1215,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1216,55 +1239,58 @@
         <v>11600</v>
       </c>
       <c r="I15" s="3">
+        <v>11600</v>
+      </c>
+      <c r="J15" s="3">
         <v>11300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>11000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>8700</v>
-      </c>
-      <c r="L15" s="3">
-        <v>2100</v>
       </c>
       <c r="M15" s="3">
         <v>2100</v>
       </c>
       <c r="N15" s="3">
+        <v>2100</v>
+      </c>
+      <c r="O15" s="3">
         <v>2000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>1900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>2100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>2000</v>
-      </c>
-      <c r="R15" s="3">
-        <v>2200</v>
       </c>
       <c r="S15" s="3">
         <v>2200</v>
       </c>
       <c r="T15" s="3">
+        <v>2200</v>
+      </c>
+      <c r="U15" s="3">
         <v>2500</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>2700</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>2400</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>1800</v>
       </c>
-      <c r="X15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1312,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>132900</v>
+      </c>
+      <c r="E17" s="3">
         <v>130200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>131300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>133600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>431600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>123600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>56900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>147700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>107500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>64000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>54900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>49700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>48500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>45600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>47100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>43900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>44100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>41200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>39500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>34700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>33400</v>
       </c>
-      <c r="X17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-39700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-31200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-40400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-46000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-346100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-29800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>26600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-74400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-48000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-16500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-12900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-12600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-17400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-14200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-15300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-6100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-18500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-14400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-15000</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,29 +1481,30 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E20" s="3">
         <v>700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1484,16 +1518,16 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
       <c r="Q20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R20" s="3">
         <v>-100</v>
@@ -1502,7 +1536,7 @@
         <v>-100</v>
       </c>
       <c r="T20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U20" s="3">
         <v>0</v>
@@ -1511,81 +1545,87 @@
         <v>0</v>
       </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>-100</v>
       </c>
-      <c r="X20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-26700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-18900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-28200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-34700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-335100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-18300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>37800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-63400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-39400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-14400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-11000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-10700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>900</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U21" s="3">
         <v>3200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-11600</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1601,160 +1641,166 @@
       <c r="G22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3">
         <v>800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>2300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>700</v>
-      </c>
-      <c r="U22" s="3">
-        <v>500</v>
       </c>
       <c r="V22" s="3">
         <v>500</v>
       </c>
       <c r="W22" s="3">
+        <v>500</v>
+      </c>
+      <c r="X22" s="3">
         <v>600</v>
       </c>
-      <c r="X22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-38300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-30500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-39800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-46300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-346700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-30700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>25800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-75200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-48700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-16600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-15400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-13900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-18300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-15000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-15900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-6900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-18900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-14900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-15800</v>
       </c>
-      <c r="X23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-3900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-12800</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-100</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
@@ -1762,11 +1808,11 @@
         <v>0</v>
       </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
@@ -1774,22 +1820,25 @@
         <v>0</v>
       </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>100</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
       <c r="V24" s="3">
         <v>0</v>
       </c>
       <c r="W24" s="3">
         <v>0</v>
       </c>
-      <c r="X24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1905,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-38400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-30400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-39900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-46500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-342800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-34600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>22500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-62400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-48700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-16600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-15400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-14000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-18300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-15000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-15900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-6900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-18900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-14900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-15800</v>
       </c>
-      <c r="X26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-38400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-30400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-39900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-46500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-342800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-34600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>22500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-62400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-48700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-16600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-15400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-14000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-18300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-15000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-15900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-6900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-18900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-14900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-15800</v>
       </c>
-      <c r="X27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2189,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,29 +2331,32 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -2300,16 +2370,16 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
       <c r="Q32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R32" s="3">
         <v>100</v>
@@ -2318,7 +2388,7 @@
         <v>100</v>
       </c>
       <c r="T32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U32" s="3">
         <v>0</v>
@@ -2327,81 +2397,87 @@
         <v>0</v>
       </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>100</v>
       </c>
-      <c r="X32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-38400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-30400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-39900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-46500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-342800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-34600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>22500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-62400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-48700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-16600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-15400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-14000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-18300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-15000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-15900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-6900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-18900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-14900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-15800</v>
       </c>
-      <c r="X33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2544,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-38400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-30400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-39900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-46500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-342800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-34600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>22500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-62400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-48700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-16600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-15400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-14000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-18300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-15000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-15900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-6900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-18900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-14900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-15800</v>
       </c>
-      <c r="X35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45077</v>
+      </c>
+      <c r="E38" s="2">
         <v>44985</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44895</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44804</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44712</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44620</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44530</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44439</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44347</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44255</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44165</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44074</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43982</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43890</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43799</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43708</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43616</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43524</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43434</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43343</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43251</v>
       </c>
-      <c r="X38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,56 +2747,57 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>302900</v>
+      </c>
+      <c r="E41" s="3">
         <v>321100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>325600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>330600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>335600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>365900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>366000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>384000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>325500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>433900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>418900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>222100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>77700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>33200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>39700</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2729,38 +2816,41 @@
       <c r="X41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K42" s="3">
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L42" s="3">
         <v>100000</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2773,8 +2863,8 @@
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
+      <c r="Q42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R42" s="3">
         <v>0</v>
@@ -2797,56 +2887,59 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>26300</v>
+      </c>
+      <c r="E43" s="3">
         <v>26700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>24200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>30600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>28500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>30800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>25900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>18700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>18000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>11800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>16800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>10800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>400</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2865,8 +2958,11 @@
       <c r="X43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,56 +3029,59 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E45" s="3">
         <v>18200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>16400</v>
-      </c>
-      <c r="F45" s="3">
-        <v>13500</v>
       </c>
       <c r="G45" s="3">
         <v>13500</v>
       </c>
       <c r="H45" s="3">
+        <v>13500</v>
+      </c>
+      <c r="I45" s="3">
         <v>12500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>15700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>14900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>9900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>8300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>8800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>10000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>15900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>14600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>6200</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3001,56 +3100,59 @@
       <c r="X45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>348500</v>
+      </c>
+      <c r="E46" s="3">
         <v>365900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>366200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>374800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>377600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>409100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>407600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>417600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>453500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>454000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>444500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>242800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>96800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>48900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>46200</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3069,8 +3171,11 @@
       <c r="X46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,56 +3242,59 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>44700</v>
+      </c>
+      <c r="E48" s="3">
         <v>44300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>44500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>44600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>45700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>44900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>12000</v>
-      </c>
-      <c r="J48" s="3">
-        <v>12200</v>
       </c>
       <c r="K48" s="3">
         <v>12200</v>
       </c>
       <c r="L48" s="3">
+        <v>12200</v>
+      </c>
+      <c r="M48" s="3">
         <v>9200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>10500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>11700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>12600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>13600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>11800</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3205,56 +3313,59 @@
       <c r="X48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>471000</v>
+      </c>
+      <c r="E49" s="3">
         <v>481400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>491800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>502100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>512500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>822600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>834700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>830800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>417700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>6100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>6400</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3273,8 +3384,11 @@
       <c r="X49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,56 +3526,59 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E52" s="3">
         <v>11400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>11300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>10200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>8700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>8900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>9100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>9200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4400</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3477,8 +3597,11 @@
       <c r="X52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,56 +3668,59 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>875700</v>
+      </c>
+      <c r="E54" s="3">
         <v>903100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>913800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>931700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>944500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1285500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1263400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1269800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>891500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>475500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>467500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>266900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>120500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>73200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>68900</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3613,8 +3739,11 @@
       <c r="X54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,56 +3795,57 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E57" s="3">
         <v>10200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>10000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>11100</v>
-      </c>
-      <c r="G57" s="3">
-        <v>7800</v>
       </c>
       <c r="H57" s="3">
         <v>7800</v>
       </c>
       <c r="I57" s="3">
+        <v>7800</v>
+      </c>
+      <c r="J57" s="3">
         <v>5700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>8700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>5300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>5100</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3733,8 +3864,11 @@
       <c r="X57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3801,56 +3935,59 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>107300</v>
+      </c>
+      <c r="E59" s="3">
         <v>109300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>106600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>101600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>87700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>103900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>178900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>240700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>160400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>71700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>69300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>65100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>70500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>64700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>67900</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3869,56 +4006,59 @@
       <c r="X59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>112700</v>
+      </c>
+      <c r="E60" s="3">
         <v>119400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>116600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>112700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>95500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>111800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>184600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>249400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>167500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>79100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>73400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>68900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>75400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>70000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>72900</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3937,38 +4077,41 @@
       <c r="X60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>282700</v>
+      </c>
+      <c r="E61" s="3">
         <v>282300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>281900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>281500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>281100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>280700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>280300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>279800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>279400</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3976,17 +4119,17 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>72500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>21100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>21000</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -4005,55 +4148,58 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>26100</v>
+      </c>
+      <c r="E62" s="3">
         <v>27500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>29300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>31200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>33400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>37300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>9800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>7000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5600</v>
-      </c>
-      <c r="M62" s="3">
-        <v>5800</v>
       </c>
       <c r="N62" s="3">
         <v>5800</v>
       </c>
       <c r="O62" s="3">
+        <v>5800</v>
+      </c>
+      <c r="P62" s="3">
         <v>6000</v>
-      </c>
-      <c r="P62" s="3">
-        <v>5900</v>
       </c>
       <c r="Q62" s="3">
         <v>5900</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>3</v>
+      <c r="R62" s="3">
+        <v>5900</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>3</v>
@@ -4073,8 +4219,11 @@
       <c r="X62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,56 +4432,59 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>421500</v>
+      </c>
+      <c r="E66" s="3">
         <v>429300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>427800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>425400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>409900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>429700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>474700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>536200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>454400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>84700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>79200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>74800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>154000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>97000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>99800</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4345,8 +4503,11 @@
       <c r="X66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4546,7 +4714,7 @@
         <v>0</v>
       </c>
       <c r="O70" s="3">
-        <v>233000</v>
+        <v>0</v>
       </c>
       <c r="P70" s="3">
         <v>233000</v>
@@ -4555,7 +4723,7 @@
         <v>233000</v>
       </c>
       <c r="R70" s="3">
-        <v>0</v>
+        <v>233000</v>
       </c>
       <c r="S70" s="3">
         <v>0</v>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,56 +4814,59 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-992700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-954300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-923900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-884000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-837500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-494600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-460100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-482600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-420200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-371500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-366800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-350200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-334800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-320900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-318700</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4711,8 +4885,11 @@
       <c r="X72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,56 +5098,59 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>454200</v>
+      </c>
+      <c r="E76" s="3">
         <v>473800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>486000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>506300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>534500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>855800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>788700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>733600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>437100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>390800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>388300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>192100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-266500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-256800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-263900</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4983,8 +5169,11 @@
       <c r="X76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5240,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45077</v>
+      </c>
+      <c r="E80" s="2">
         <v>44985</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44895</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44804</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44712</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44620</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44530</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44439</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44347</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44255</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44165</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44074</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43982</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43890</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43799</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43708</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43616</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43524</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43434</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43343</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43251</v>
       </c>
-      <c r="X80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-38400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-30400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-39900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-46500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-342800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-34600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>22500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-62400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-48700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-16600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-15400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-14000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-18300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-15000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-15900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-6900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-18900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-14900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-15800</v>
       </c>
-      <c r="X81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5416,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5239,32 +5438,32 @@
         <v>11600</v>
       </c>
       <c r="I83" s="3">
+        <v>11600</v>
+      </c>
+      <c r="J83" s="3">
         <v>11300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>11000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>8700</v>
-      </c>
-      <c r="L83" s="3">
-        <v>2100</v>
       </c>
       <c r="M83" s="3">
         <v>2100</v>
       </c>
       <c r="N83" s="3">
+        <v>2100</v>
+      </c>
+      <c r="O83" s="3">
         <v>2000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>2100</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
@@ -5277,8 +5476,8 @@
       <c r="U83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V83" s="3">
-        <v>0</v>
+      <c r="V83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W83" s="3">
         <v>0</v>
@@ -5286,8 +5485,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,53 +5840,56 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-30500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-21400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-11000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-27600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>10400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-12300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-15000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-8300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-10300</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5685,8 +5902,8 @@
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
+      <c r="V89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W89" s="3">
         <v>0</v>
@@ -5694,8 +5911,11 @@
       <c r="X89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,53 +5940,54 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-700</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-800</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5779,8 +6000,8 @@
       <c r="U91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
+      <c r="V91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W91" s="3">
         <v>0</v>
@@ -5788,8 +6009,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,53 +6151,56 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>64900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-328700</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-500</v>
       </c>
       <c r="M94" s="3">
         <v>-500</v>
       </c>
       <c r="N94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O94" s="3">
         <v>-900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-800</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5983,8 +6213,8 @@
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
+      <c r="V94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W94" s="3">
         <v>0</v>
@@ -5992,8 +6222,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6320,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,53 +6533,56 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1500</v>
-      </c>
-      <c r="H100" s="3">
-        <v>2700</v>
       </c>
       <c r="I100" s="3">
         <v>2700</v>
       </c>
       <c r="J100" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K100" s="3">
         <v>4600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>248000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>5000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>209600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>160300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>53400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>4600</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
@@ -6349,8 +6595,8 @@
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
+      <c r="V100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W100" s="3">
         <v>0</v>
@@ -6358,8 +6604,11 @@
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,53 +6675,56 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-4600</v>
-      </c>
-      <c r="E102" s="3">
-        <v>-5000</v>
       </c>
       <c r="F102" s="3">
         <v>-5000</v>
       </c>
       <c r="G102" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="H102" s="3">
         <v>-30200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-18000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>58500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-108400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>14900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>196800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>144400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>44500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
@@ -6485,13 +6737,16 @@
       <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
+      <c r="V102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W102" s="3">
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>
